--- a/public/reportes/reporteFacturas.xlsx
+++ b/public/reportes/reporteFacturas.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="713">
   <si>
     <t>FECHA DE EMISIÓN</t>
   </si>
@@ -53,25 +53,2107 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>2016-06-27 22:50:42</t>
+    <t>2016-01-19 10:42:03</t>
   </si>
   <si>
     <t>ingreso</t>
   </si>
   <si>
-    <t>CUHC901208KQ8</t>
-  </si>
-  <si>
-    <t>CARLOS CUAMATZIN HERNANDEZ</t>
-  </si>
-  <si>
-    <t>104CC73C-7A2B-4E0F-9C12-6EE2D6100E5C</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>304</t>
+    <t>JISJ600123215</t>
+  </si>
+  <si>
+    <t>JULIO CESAR JIMENEZ SANTOS</t>
+  </si>
+  <si>
+    <t>0BF530AE-9F06-459C-A317-6398086B4F1E</t>
+  </si>
+  <si>
+    <t>12926</t>
+  </si>
+  <si>
+    <t>2016-01-07 15:05:51</t>
+  </si>
+  <si>
+    <t>CMP910904V63</t>
+  </si>
+  <si>
+    <t>CENTRAL DE MUELLES DE PUEBLA S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>0A5D08D5-01BC-084D-8C83-FFC8E14A5CDC</t>
+  </si>
+  <si>
+    <t>9313</t>
+  </si>
+  <si>
+    <t>2016-01-28 10:28:52</t>
+  </si>
+  <si>
+    <t>egreso</t>
+  </si>
+  <si>
+    <t>DPJ001122MA2</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA PJ, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>00AADD0D-92B9-46A7-93A8-77E770690E92</t>
+  </si>
+  <si>
+    <t>27603</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2016-01-27 14:47:11</t>
+  </si>
+  <si>
+    <t>MOR9602092P5</t>
+  </si>
+  <si>
+    <t>MORPAR</t>
+  </si>
+  <si>
+    <t>0B26C6FD-271C-4489-A6CC-96020E43AFAB</t>
+  </si>
+  <si>
+    <t>20272</t>
+  </si>
+  <si>
+    <t>2016-01-19 11:31:19</t>
+  </si>
+  <si>
+    <t>ATM940922626</t>
+  </si>
+  <si>
+    <t>AutoTodo Mexicana S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>0C8A0E4F-269E-4182-A891-B1028B050941</t>
+  </si>
+  <si>
+    <t>0000494978</t>
+  </si>
+  <si>
+    <t>2016-01-08 10:45:58</t>
+  </si>
+  <si>
+    <t>APM8805092U9</t>
+  </si>
+  <si>
+    <t>Auto partes y mas S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>0DE90E82-B751-4EAC-91FD-6A2B6F126B33</t>
+  </si>
+  <si>
+    <t>176653</t>
+  </si>
+  <si>
+    <t>128.53</t>
+  </si>
+  <si>
+    <t>2016-01-09 10:00:17</t>
+  </si>
+  <si>
+    <t>00EE15CC-4427-4605-BDC0-97CEA64AFDDB</t>
+  </si>
+  <si>
+    <t>12735</t>
+  </si>
+  <si>
+    <t>2016-01-19 11:28:22</t>
+  </si>
+  <si>
+    <t>0F70FDE9-43C1-4AA6-BD15-42256BD68106</t>
+  </si>
+  <si>
+    <t>0000494969</t>
+  </si>
+  <si>
+    <t>2016-01-27 10:25:53</t>
+  </si>
+  <si>
+    <t>0F088F56-0BEC-476A-848E-8D0EA750537D</t>
+  </si>
+  <si>
+    <t>84223</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:29:57</t>
+  </si>
+  <si>
+    <t>CNM980114PI2</t>
+  </si>
+  <si>
+    <t>AT&amp;T Comunicaciones Digitales, S. de R.L. de C.V.</t>
+  </si>
+  <si>
+    <t>0F93AC52-09DE-4F28-8E09-16F9F1CBF979</t>
+  </si>
+  <si>
+    <t>120596949</t>
+  </si>
+  <si>
+    <t>2016-01-22 19:04:27</t>
+  </si>
+  <si>
+    <t>1B6BC8B9-17D6-4B8C-8A21-F1BC9719A5EC</t>
+  </si>
+  <si>
+    <t>27433</t>
+  </si>
+  <si>
+    <t>2016-01-07 18:18:00</t>
+  </si>
+  <si>
+    <t>CSO680801P93</t>
+  </si>
+  <si>
+    <t>CASA SOMMER, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>1DA3CA55-5A60-4568-8C0F-C3D3F2133E8A</t>
+  </si>
+  <si>
+    <t>4200025880</t>
+  </si>
+  <si>
+    <t>2016-01-07 18:15:58</t>
+  </si>
+  <si>
+    <t>1ED738EC-D78B-4228-9ABC-DD547F86F69F</t>
+  </si>
+  <si>
+    <t>4200025879</t>
+  </si>
+  <si>
+    <t>2016-01-15 09:49:45</t>
+  </si>
+  <si>
+    <t>SIP900823FU6</t>
+  </si>
+  <si>
+    <t>SUMINISTROS INDUSTRIALES DE PUEBLA S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>2B6CAE11-EDEE-40C5-821A-16439DFCFD23</t>
+  </si>
+  <si>
+    <t>23169</t>
+  </si>
+  <si>
+    <t>2016-01-07 16:02:52</t>
+  </si>
+  <si>
+    <t>2C37CE9C-414E-4CF8-8CF6-399223AF1698</t>
+  </si>
+  <si>
+    <t>82225</t>
+  </si>
+  <si>
+    <t>2016-01-02 12:00:13</t>
+  </si>
+  <si>
+    <t>2CD91CD7-75BF-495D-826B-C0E0F79E2E0C</t>
+  </si>
+  <si>
+    <t>19865</t>
+  </si>
+  <si>
+    <t>2016-01-18 14:01:12</t>
+  </si>
+  <si>
+    <t>CCO8605231N4</t>
+  </si>
+  <si>
+    <t>CADENA COMERCIAL OXXO, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>3BA64C02-91EB-4C55-B850-E94796512939</t>
+  </si>
+  <si>
+    <t>149020904</t>
+  </si>
+  <si>
+    <t>2016-01-21 11:53:22</t>
+  </si>
+  <si>
+    <t>RGD821110895</t>
+  </si>
+  <si>
+    <t>REFACCIONES GENERALES DIESEL AGRICOLA Y AUTOMOTRIZ, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>3E8B2784-C000-4AFE-8C38-907C99A0D2F2</t>
+  </si>
+  <si>
+    <t>38421</t>
+  </si>
+  <si>
+    <t>2016-01-11 09:01:49</t>
+  </si>
+  <si>
+    <t>3EE151F1-9BF1-459F-A92B-8EEE7235F118</t>
+  </si>
+  <si>
+    <t>26813</t>
+  </si>
+  <si>
+    <t>2016-01-06 10:26:26</t>
+  </si>
+  <si>
+    <t>3FD32128-4716-7C46-9E54-05452095FCB1</t>
+  </si>
+  <si>
+    <t>9303</t>
+  </si>
+  <si>
+    <t>2016-01-25 16:27:18</t>
+  </si>
+  <si>
+    <t>GCM060620RA9</t>
+  </si>
+  <si>
+    <t>GRUPO CCCH DE MEXICO, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>04A75E9F-FE1F-4393-AFA8-C2D65DE36031</t>
+  </si>
+  <si>
+    <t>100754</t>
+  </si>
+  <si>
+    <t>3903.58</t>
+  </si>
+  <si>
+    <t>2016-01-08 12:19:40</t>
+  </si>
+  <si>
+    <t>FAS041019J95</t>
+  </si>
+  <si>
+    <t>EL FARO AUTOMOTRIZ SAN PEDRO  SA DE CV</t>
+  </si>
+  <si>
+    <t>04A13094-D69B-4631-8821-AE464EDCD043</t>
+  </si>
+  <si>
+    <t>11967</t>
+  </si>
+  <si>
+    <t>2016-01-06 12:27:11</t>
+  </si>
+  <si>
+    <t>4C4AFBE4-D484-4F53-AA20-902059F58A5F</t>
+  </si>
+  <si>
+    <t>82065</t>
+  </si>
+  <si>
+    <t>2016-01-30 08:51:37</t>
+  </si>
+  <si>
+    <t>BBA830831LJ2</t>
+  </si>
+  <si>
+    <t>BBVA BANCOMER, S.A.</t>
+  </si>
+  <si>
+    <t>4CB2AF59-D0B9-4943-B1C5-FF7357C08262</t>
+  </si>
+  <si>
+    <t>00012650004433588368</t>
+  </si>
+  <si>
+    <t>2016-01-26 21:52:00</t>
+  </si>
+  <si>
+    <t>ASE941124NN4</t>
+  </si>
+  <si>
+    <t>El Aguila Compañía de Seguros SA de CV</t>
+  </si>
+  <si>
+    <t>4CD91971-E86C-2C86-DA6F-E90F95BD805E</t>
+  </si>
+  <si>
+    <t>45409</t>
+  </si>
+  <si>
+    <t>2016-01-30 13:56:02</t>
+  </si>
+  <si>
+    <t>4CE4EB79-EE2D-4C3E-BF74-6B3C6F94F8EF</t>
+  </si>
+  <si>
+    <t>0000505358</t>
+  </si>
+  <si>
+    <t>2016-01-06 17:01:23</t>
+  </si>
+  <si>
+    <t>4D2C783B-09D0-4212-A70C-D1EAC7D81982</t>
+  </si>
+  <si>
+    <t>82117</t>
+  </si>
+  <si>
+    <t>2016-01-27 23:24:13</t>
+  </si>
+  <si>
+    <t>AXT940727FP8</t>
+  </si>
+  <si>
+    <t>AXTEL, S.A.B. DE C.V.</t>
+  </si>
+  <si>
+    <t>4EB81343-C368-43B7-A695-753C519E307F</t>
+  </si>
+  <si>
+    <t>18631932</t>
+  </si>
+  <si>
+    <t>2016-01-04 12:14:56</t>
+  </si>
+  <si>
+    <t>5A7D36AA-D9E7-4268-8B53-7B0C452D52DE</t>
+  </si>
+  <si>
+    <t>81776</t>
+  </si>
+  <si>
+    <t>2016-01-02 14:19:07</t>
+  </si>
+  <si>
+    <t>5C8F30DB-0BC2-4F1F-AEC0-29944F8A7E86</t>
+  </si>
+  <si>
+    <t>0000482626</t>
+  </si>
+  <si>
+    <t>2016-01-30 12:40:13</t>
+  </si>
+  <si>
+    <t>5E1BBA1F-7FEE-4BDF-AB0D-7E07F5F9F695</t>
+  </si>
+  <si>
+    <t>30082</t>
+  </si>
+  <si>
+    <t>2016-01-26 10:23:23</t>
+  </si>
+  <si>
+    <t>6B54E96B-464D-4E1D-9B63-3E9248938043</t>
+  </si>
+  <si>
+    <t>84108</t>
+  </si>
+  <si>
+    <t>2016-01-01 11:21:01</t>
+  </si>
+  <si>
+    <t>BSM970519DU8</t>
+  </si>
+  <si>
+    <t>BANCO SANTANDER (MEXICO), S.A.INSTITUCION DE BANCA MULTIPLE, GRUPO FINANCIERO SANTANDER MEXICO</t>
+  </si>
+  <si>
+    <t>6B075443-CE80-4DA5-B3F2-7D72E03AA516</t>
+  </si>
+  <si>
+    <t>05005855800</t>
+  </si>
+  <si>
+    <t>2016-01-15 10:41:59</t>
+  </si>
+  <si>
+    <t>ITM8012013N0</t>
+  </si>
+  <si>
+    <t>IMPULSORA DE TRANSPORTES MEXICANOS S.A DE C.V.</t>
+  </si>
+  <si>
+    <t>6BE0AF32-BE2E-4CC6-9887-7F47BE6D1530</t>
+  </si>
+  <si>
+    <t>110724</t>
+  </si>
+  <si>
+    <t>4.90</t>
+  </si>
+  <si>
+    <t>2016-01-21 14:16:41</t>
+  </si>
+  <si>
+    <t>6D9204F1-C04A-4A36-9E2C-061B42F3ADCC</t>
+  </si>
+  <si>
+    <t>23382</t>
+  </si>
+  <si>
+    <t>2016-01-08 12:50:03</t>
+  </si>
+  <si>
+    <t>6D196969-6493-4927-9329-F2C96C7AC19D</t>
+  </si>
+  <si>
+    <t>110248</t>
+  </si>
+  <si>
+    <t>5.54</t>
+  </si>
+  <si>
+    <t>2016-01-13 09:59:36</t>
+  </si>
+  <si>
+    <t>6E2F5079-393C-474A-9BB1-3CC433C66E08</t>
+  </si>
+  <si>
+    <t>82826</t>
+  </si>
+  <si>
+    <t>2016-01-08 08:55:00</t>
+  </si>
+  <si>
+    <t>APS080728RT5</t>
+  </si>
+  <si>
+    <t>ADT Private Security Services de México S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>6E5F244B-65A6-4379-A3C2-8571CF3775AB</t>
+  </si>
+  <si>
+    <t>10310942</t>
+  </si>
+  <si>
+    <t>2016-01-27 16:09:01</t>
+  </si>
+  <si>
+    <t>MMP6602246B3</t>
+  </si>
+  <si>
+    <t>MOPESA MOTORES POWER, S.A.</t>
+  </si>
+  <si>
+    <t>6E12F1E7-BE97-4004-8B32-95BABA97B18F</t>
+  </si>
+  <si>
+    <t>11899</t>
+  </si>
+  <si>
+    <t>2016-01-19 10:40:02</t>
+  </si>
+  <si>
+    <t>7B409E4F-8A59-4110-A0CA-FBDF7DFB32BA</t>
+  </si>
+  <si>
+    <t>83425</t>
+  </si>
+  <si>
+    <t>2016-01-28 15:28:00</t>
+  </si>
+  <si>
+    <t>COJS690210TQ1</t>
+  </si>
+  <si>
+    <t>SILVIA CORDERO JUAREZ</t>
+  </si>
+  <si>
+    <t>7C8A54D3-BD60-4E5B-A65E-123C0E69C484</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>2016-01-27 14:51:03</t>
+  </si>
+  <si>
+    <t>TSO991022PB6</t>
+  </si>
+  <si>
+    <t>TIENDAS SORIANA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>7C065DE3-F718-467B-8640-7291A47B8D48</t>
+  </si>
+  <si>
+    <t>73544</t>
+  </si>
+  <si>
+    <t>0.000000</t>
+  </si>
+  <si>
+    <t>2016-01-26 10:02:06</t>
+  </si>
+  <si>
+    <t>7E03A903-DE49-41B2-9A87-9030457837F7</t>
+  </si>
+  <si>
+    <t>11880</t>
+  </si>
+  <si>
+    <t>2016-01-07 08:26:26</t>
+  </si>
+  <si>
+    <t>7FFF02FE-BDB1-4820-B16F-55A31859DFD1</t>
+  </si>
+  <si>
+    <t>0000485507</t>
+  </si>
+  <si>
+    <t>2016-01-11 15:28:58</t>
+  </si>
+  <si>
+    <t>TSJ131028PB8</t>
+  </si>
+  <si>
+    <t>TORNO Y SOLDADURA JUAREZ AUTOMOTRIZ, S.A. DE C.V</t>
+  </si>
+  <si>
+    <t>8A4ED7C3-64C4-4AF1-B022-010CD42259C2</t>
+  </si>
+  <si>
+    <t>2178</t>
+  </si>
+  <si>
+    <t>2016-01-04 10:17:25</t>
+  </si>
+  <si>
+    <t>TER110712QG3</t>
+  </si>
+  <si>
+    <t>TRACTOPARTES ER, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>8A8F063F-54D2-427D-AE24-F0FA29C75A05</t>
+  </si>
+  <si>
+    <t>5851</t>
+  </si>
+  <si>
+    <t>2016-01-31 14:06:03</t>
+  </si>
+  <si>
+    <t>8B27CDB1-219D-4F8F-8AA3-46DF21020B46</t>
+  </si>
+  <si>
+    <t>0000508039</t>
+  </si>
+  <si>
+    <t>2016-01-28 14:41:23</t>
+  </si>
+  <si>
+    <t>8C8A3AFF-A85F-479E-B2C8-AE0A57CB3368</t>
+  </si>
+  <si>
+    <t>111730</t>
+  </si>
+  <si>
+    <t>2016-01-13 19:31:45</t>
+  </si>
+  <si>
+    <t>TAGA700329KJ1</t>
+  </si>
+  <si>
+    <t>ALMA DELIA TAPIA GONZALEZ</t>
+  </si>
+  <si>
+    <t>8C009813-3746-495B-9EB3-5809DE01E2B6</t>
+  </si>
+  <si>
+    <t>4226</t>
+  </si>
+  <si>
+    <t>2016-01-05 16:53:12</t>
+  </si>
+  <si>
+    <t>OOM960429832</t>
+  </si>
+  <si>
+    <t>OPERADORA OMX, SA DE CV</t>
+  </si>
+  <si>
+    <t>8D1E75E1-5B05-4D06-9E1E-46D8A8249126</t>
+  </si>
+  <si>
+    <t>7577436</t>
+  </si>
+  <si>
+    <t>168.97</t>
+  </si>
+  <si>
+    <t>2016-01-25 11:40:25</t>
+  </si>
+  <si>
+    <t>8E40B332-D1B9-47A2-8693-9DC3BC1D2B6D</t>
+  </si>
+  <si>
+    <t>84006</t>
+  </si>
+  <si>
+    <t>2016-01-25 16:20:42</t>
+  </si>
+  <si>
+    <t>8EC737EA-B01A-401C-B7B4-093C63271B8D</t>
+  </si>
+  <si>
+    <t>27517</t>
+  </si>
+  <si>
+    <t>2016-01-12 16:11:47</t>
+  </si>
+  <si>
+    <t>DAR850124AR8</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA ARESCO S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>9ADF7694-74F0-8248-BB54-B572EF314730</t>
+  </si>
+  <si>
+    <t>34274</t>
+  </si>
+  <si>
+    <t>36.44</t>
+  </si>
+  <si>
+    <t>2016-01-30 12:40:43</t>
+  </si>
+  <si>
+    <t>9B5F5AF2-D3A8-4413-9EC2-2E27CF2314A1</t>
+  </si>
+  <si>
+    <t>30083</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:51:22</t>
+  </si>
+  <si>
+    <t>9D5CD926-96F9-40FF-941A-01B5564D3241</t>
+  </si>
+  <si>
+    <t>82419</t>
+  </si>
+  <si>
+    <t>2016-01-22 19:04:28</t>
+  </si>
+  <si>
+    <t>9D66E9CE-8836-4A1F-A23C-2E1F05BE21FE</t>
+  </si>
+  <si>
+    <t>27436</t>
+  </si>
+  <si>
+    <t>2016-01-30 12:11:30</t>
+  </si>
+  <si>
+    <t>9DBACBAA-BF19-4A04-A52A-FB51D9B4D185</t>
+  </si>
+  <si>
+    <t>111908</t>
+  </si>
+  <si>
+    <t>7.34</t>
+  </si>
+  <si>
+    <t>2016-01-20 13:19:14</t>
+  </si>
+  <si>
+    <t>9EC4A3F6-66B6-420B-ABA3-144F13548A95</t>
+  </si>
+  <si>
+    <t>83618</t>
+  </si>
+  <si>
+    <t>2016-01-20 14:08:44</t>
+  </si>
+  <si>
+    <t>9F4D1073-4883-4FBF-B7D2-76EBDDB8E897</t>
+  </si>
+  <si>
+    <t>20179</t>
+  </si>
+  <si>
+    <t>2016-01-05 10:20:45</t>
+  </si>
+  <si>
+    <t>9FA0E058-7C5D-4E10-BA66-6B4EACEE7B84</t>
+  </si>
+  <si>
+    <t>4000342688</t>
+  </si>
+  <si>
+    <t>14C9D6B8-3D2C-43B1-A8E3-A84E42085EE6</t>
+  </si>
+  <si>
+    <t>27607</t>
+  </si>
+  <si>
+    <t>2016-01-22 17:29:10</t>
+  </si>
+  <si>
+    <t>CRA940715H52</t>
+  </si>
+  <si>
+    <t>COMERCIALIZADORA DE RODAMIENTOS Y AUTOPARTES, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>15FEDDBE-671E-483A-8CC7-584848F00242</t>
+  </si>
+  <si>
+    <t>211544</t>
+  </si>
+  <si>
+    <t>2016-01-28 10:28:54</t>
+  </si>
+  <si>
+    <t>19F32BB3-1893-42D2-9CEF-AC987EAA4EB4</t>
+  </si>
+  <si>
+    <t>27628</t>
+  </si>
+  <si>
+    <t>2016-01-21 18:00:47</t>
+  </si>
+  <si>
+    <t>24F0FF02-E9CD-4C81-AE3C-2145ACBD460D</t>
+  </si>
+  <si>
+    <t>111227</t>
+  </si>
+  <si>
+    <t>9.63</t>
+  </si>
+  <si>
+    <t>2016-01-25 19:42:12</t>
+  </si>
+  <si>
+    <t>26D1BB40-7007-4EB9-A46F-DA336E49F09F</t>
+  </si>
+  <si>
+    <t>100840</t>
+  </si>
+  <si>
+    <t>365.35</t>
+  </si>
+  <si>
+    <t>2016-01-16 13:35:43</t>
+  </si>
+  <si>
+    <t>TRR100430AW0</t>
+  </si>
+  <si>
+    <t>TEMEM REFACCIONES Y REPARACIONES S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>36AC7BC1-A73C-FD48-815B-A636F0522C97</t>
+  </si>
+  <si>
+    <t>5570</t>
+  </si>
+  <si>
+    <t>2016-01-18 17:42:10</t>
+  </si>
+  <si>
+    <t>36FBA3FD-1782-4BF1-A43B-22194B15E439</t>
+  </si>
+  <si>
+    <t>5980</t>
+  </si>
+  <si>
+    <t>2016-01-21 18:03:21</t>
+  </si>
+  <si>
+    <t>44A07659-DC64-422D-A203-4AF1AD0EA278</t>
+  </si>
+  <si>
+    <t>111228</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>2016-01-19 10:19:03</t>
+  </si>
+  <si>
+    <t>49BBA106-C35B-43C8-9923-6B8675F025B0</t>
+  </si>
+  <si>
+    <t>83424</t>
+  </si>
+  <si>
+    <t>2016-01-13 10:32:49</t>
+  </si>
+  <si>
+    <t>MMD820914JL7</t>
+  </si>
+  <si>
+    <t>MAZA MORAN DISTRIBUCIONES SA DE CV</t>
+  </si>
+  <si>
+    <t>55CD6DB9-F8B5-431B-A9CB-4A9AEE5320F4</t>
+  </si>
+  <si>
+    <t>235246</t>
+  </si>
+  <si>
+    <t>4344.5640</t>
+  </si>
+  <si>
+    <t>2016-01-05 13:37:58</t>
+  </si>
+  <si>
+    <t>NUAJ470214R24</t>
+  </si>
+  <si>
+    <t>JESUS NUNCIO AVALOS</t>
+  </si>
+  <si>
+    <t>55E8A880-C111-4D59-87B7-B76F84C67BE0</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2016-01-29 02:24:21</t>
+  </si>
+  <si>
+    <t>RORR6107046C5</t>
+  </si>
+  <si>
+    <t>RENÉ ROJAS RODRÍGUEZ</t>
+  </si>
+  <si>
+    <t>58D9D54E-68B3-4438-9318-65CEDDF7275B</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>2016-01-22 19:04:24</t>
+  </si>
+  <si>
+    <t>60A64DF4-CF3B-44E0-AD50-970334FA154B</t>
+  </si>
+  <si>
+    <t>27409</t>
+  </si>
+  <si>
+    <t>2016-01-28 10:28:57</t>
+  </si>
+  <si>
+    <t>61FD899A-B571-4E32-AE2A-53270C1C5D90</t>
+  </si>
+  <si>
+    <t>27645</t>
+  </si>
+  <si>
+    <t>2016-01-12 10:04:12</t>
+  </si>
+  <si>
+    <t>61FF818A-6527-084F-8DDE-C19B8FA9CB86</t>
+  </si>
+  <si>
+    <t>5528</t>
+  </si>
+  <si>
+    <t>2016-01-20 14:02:13</t>
+  </si>
+  <si>
+    <t>67CB8DDA-A5C4-46F1-A258-5435C3736204</t>
+  </si>
+  <si>
+    <t>20178</t>
+  </si>
+  <si>
+    <t>2016-01-26 10:30:18</t>
+  </si>
+  <si>
+    <t>69FEE8E4-B216-4C4F-A200-C75C2D4F9768</t>
+  </si>
+  <si>
+    <t>11881</t>
+  </si>
+  <si>
+    <t>2016-01-08 18:13:44</t>
+  </si>
+  <si>
+    <t>74B41F69-21FF-45F4-89B4-9803CE8FCEA7</t>
+  </si>
+  <si>
+    <t>26707</t>
+  </si>
+  <si>
+    <t>2016-01-21 09:53:01</t>
+  </si>
+  <si>
+    <t>75E5FBE5-D10D-459D-810C-1FEFC74D362C</t>
+  </si>
+  <si>
+    <t>4266</t>
+  </si>
+  <si>
+    <t>2016-01-04 10:17:51</t>
+  </si>
+  <si>
+    <t>76BE0C6E-E505-4E89-9DB4-B7D8FFABF151</t>
+  </si>
+  <si>
+    <t>5852</t>
+  </si>
+  <si>
+    <t>2016-01-05 13:19:13</t>
+  </si>
+  <si>
+    <t>77E7005D-D1E0-4141-AA79-F66410514457</t>
+  </si>
+  <si>
+    <t>5475</t>
+  </si>
+  <si>
+    <t>2016-01-07 08:26:49</t>
+  </si>
+  <si>
+    <t>77E27350-0283-4A9C-8DF8-B6304C9FE4EB</t>
+  </si>
+  <si>
+    <t>0000485506</t>
+  </si>
+  <si>
+    <t>2016-01-07 13:14:43</t>
+  </si>
+  <si>
+    <t>83C459EE-2642-4523-B5BC-819CF4DE12DD</t>
+  </si>
+  <si>
+    <t>5897</t>
+  </si>
+  <si>
+    <t>2016-01-11 09:42:49</t>
+  </si>
+  <si>
+    <t>AELE720914TZ5</t>
+  </si>
+  <si>
+    <t>EDGAR ANGELES LOPEZ</t>
+  </si>
+  <si>
+    <t>84C3DE2C-D292-4C58-90D5-1AED2F00917D</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>2016-01-31 12:55:23</t>
+  </si>
+  <si>
+    <t>84F3D0E8-5E60-408A-866A-D81588DE2364</t>
+  </si>
+  <si>
+    <t>0000506646</t>
+  </si>
+  <si>
+    <t>2016-01-12 15:49:17</t>
+  </si>
+  <si>
+    <t>86AEE3AF-4BE7-4687-906B-A47C9EB1BE2D</t>
+  </si>
+  <si>
+    <t>59414</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>2016-01-08 18:13:45</t>
+  </si>
+  <si>
+    <t>176DBCE9-AAF9-428C-8D49-330DD39118DA</t>
+  </si>
+  <si>
+    <t>26710</t>
+  </si>
+  <si>
+    <t>2016-01-19 16:39:40</t>
+  </si>
+  <si>
+    <t>246E1356-1833-4AE7-B36D-BE021AF08156</t>
+  </si>
+  <si>
+    <t>83508</t>
+  </si>
+  <si>
+    <t>2016-01-19 11:00:49</t>
+  </si>
+  <si>
+    <t>333A217A-62B0-483D-A866-AC8C63D61F79</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2016-01-21 18:44:33</t>
+  </si>
+  <si>
+    <t>493AD5BC-8F66-43D8-AEFC-9CC1C78AEF89</t>
+  </si>
+  <si>
+    <t>178106</t>
+  </si>
+  <si>
+    <t>65.25</t>
+  </si>
+  <si>
+    <t>2016-01-04 11:05:25</t>
+  </si>
+  <si>
+    <t>CRO97061954A</t>
+  </si>
+  <si>
+    <t>COMERCIAL ROSHFRANS, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>531A60D2-AAE2-405E-BB61-5D215960A200</t>
+  </si>
+  <si>
+    <t>106139</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:23:18</t>
+  </si>
+  <si>
+    <t>547DE825-B946-45BA-8923-9634576AC754</t>
+  </si>
+  <si>
+    <t>19994</t>
+  </si>
+  <si>
+    <t>2016-01-15 12:40:59</t>
+  </si>
+  <si>
+    <t>640D3301-B46D-4076-9A58-5EC3E585CFF0</t>
+  </si>
+  <si>
+    <t>4237</t>
+  </si>
+  <si>
+    <t>2016-01-12 14:07:26</t>
+  </si>
+  <si>
+    <t>668F8E9A-13F1-45BC-898D-1940DE87E688</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>2016-01-07 10:01:40</t>
+  </si>
+  <si>
+    <t>777B191E-FABE-AB41-85D1-7B2E1CA87CFF</t>
+  </si>
+  <si>
+    <t>9310</t>
+  </si>
+  <si>
+    <t>2016-01-19 23:23:28</t>
+  </si>
+  <si>
+    <t>ASE931116231</t>
+  </si>
+  <si>
+    <t>AXA Seguros, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>813C47F5-CCF9-4EC0-86D3-7FA49A31A175</t>
+  </si>
+  <si>
+    <t>3318629</t>
+  </si>
+  <si>
+    <t>2016-01-01 20:39:00</t>
+  </si>
+  <si>
+    <t>855B3F7E-F9A3-4333-B0A6-7844CF98AAF5</t>
+  </si>
+  <si>
+    <t>007425935592788047</t>
+  </si>
+  <si>
+    <t>2016-01-15 07:56:14</t>
+  </si>
+  <si>
+    <t>892BB3B5-EB83-4451-9472-3FF2B84F3374</t>
+  </si>
+  <si>
+    <t>169612</t>
+  </si>
+  <si>
+    <t>1427.5415</t>
+  </si>
+  <si>
+    <t>2016-01-09 09:39:30</t>
+  </si>
+  <si>
+    <t>0955D0B6-B73B-4ECE-82EA-68089F7B3F3B</t>
+  </si>
+  <si>
+    <t>82474</t>
+  </si>
+  <si>
+    <t>2016-01-26 10:55:35</t>
+  </si>
+  <si>
+    <t>968ED24F-61D0-4E23-9931-FEA9328CDF4D</t>
+  </si>
+  <si>
+    <t>84114</t>
+  </si>
+  <si>
+    <t>2016-01-19 14:02:34</t>
+  </si>
+  <si>
+    <t>1523E2CB-579B-4B34-8432-02A0ABB844E7</t>
+  </si>
+  <si>
+    <t>298</t>
+  </si>
+  <si>
+    <t>2016-01-11 08:54:04</t>
+  </si>
+  <si>
+    <t>3031AB9B-56AD-4A30-9083-0F5090F08719</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>2016-01-22 10:06:12</t>
+  </si>
+  <si>
+    <t>3454B3FE-0F0D-4A70-9A2C-95DF180EE16C</t>
+  </si>
+  <si>
+    <t>12212</t>
+  </si>
+  <si>
+    <t>2016-01-14 18:17:44</t>
+  </si>
+  <si>
+    <t>3562A646-1B9B-4DEB-A6D9-64236711ED3F</t>
+  </si>
+  <si>
+    <t>83053</t>
+  </si>
+  <si>
+    <t>2016-01-09 10:27:54</t>
+  </si>
+  <si>
+    <t>06026C17-A77B-46DF-B4DF-340D155FD624</t>
+  </si>
+  <si>
+    <t>4000345251</t>
+  </si>
+  <si>
+    <t>2016-01-19 11:22:31</t>
+  </si>
+  <si>
+    <t>6883D6C2-154C-48EA-9C28-EE6B570CEE66</t>
+  </si>
+  <si>
+    <t>0000494967</t>
+  </si>
+  <si>
+    <t>2016-01-20 16:56:10</t>
+  </si>
+  <si>
+    <t>RABJ850825B72</t>
+  </si>
+  <si>
+    <t>JESUS DAVID RAMOS BADILLO</t>
+  </si>
+  <si>
+    <t>8813E664-95F0-438C-BFC3-DB1363C55BFA</t>
+  </si>
+  <si>
+    <t>000329</t>
+  </si>
+  <si>
+    <t>2016-01-15 13:00:43</t>
+  </si>
+  <si>
+    <t>POE930504LVA</t>
+  </si>
+  <si>
+    <t>PROVEEDORA DE OFICINAS LA ESFERA DE PUEBLA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>9188CB73-E1C9-4344-ABAF-2C796C7ECA8E</t>
+  </si>
+  <si>
+    <t>21648</t>
+  </si>
+  <si>
+    <t>2016-01-31 09:23:28</t>
+  </si>
+  <si>
+    <t>23326F12-C211-49C0-98E0-7BFEBBBC1027</t>
+  </si>
+  <si>
+    <t>0000505928</t>
+  </si>
+  <si>
+    <t>2016-01-07 08:26:37</t>
+  </si>
+  <si>
+    <t>026147DD-40B2-43EC-A6FC-208B8C0487B7</t>
+  </si>
+  <si>
+    <t>0000485509</t>
+  </si>
+  <si>
+    <t>2016-01-07 08:26:06</t>
+  </si>
+  <si>
+    <t>37656DB0-7DF7-40AE-A71C-DE7F912FB66E</t>
+  </si>
+  <si>
+    <t>0000485508</t>
+  </si>
+  <si>
+    <t>2016-01-16 17:56:22</t>
+  </si>
+  <si>
+    <t>IMS421231I45</t>
+  </si>
+  <si>
+    <t>INSTITUTO MEXICANO DEL SEGURO SOCIAL</t>
+  </si>
+  <si>
+    <t>52507A17-7621-4E21-BC1E-B98CC994078E</t>
+  </si>
+  <si>
+    <t>2016-01-28 21:03:26</t>
+  </si>
+  <si>
+    <t>063148EF-94C2-4DF2-87EA-2AAD13CE688B</t>
+  </si>
+  <si>
+    <t>0000503214</t>
+  </si>
+  <si>
+    <t>2016-01-07 18:48:40</t>
+  </si>
+  <si>
+    <t>3285506E-8121-4AC1-A1C8-04C38ACF6991</t>
+  </si>
+  <si>
+    <t>26548</t>
+  </si>
+  <si>
+    <t>2016-01-13 15:52:00</t>
+  </si>
+  <si>
+    <t>9552205C-BA0D-4C49-A5D4-0DA7F7604D08</t>
+  </si>
+  <si>
+    <t>79263</t>
+  </si>
+  <si>
+    <t>2496.19</t>
+  </si>
+  <si>
+    <t>2016-01-05 12:53:57</t>
+  </si>
+  <si>
+    <t>9699389B-8D5E-6541-96A6-E4E4BCAE6480</t>
+  </si>
+  <si>
+    <t>9299</t>
+  </si>
+  <si>
+    <t>2016-01-07 08:26:22</t>
+  </si>
+  <si>
+    <t>13076046-F5C8-410E-BA06-8EECF4D29CC2</t>
+  </si>
+  <si>
+    <t>0000485510</t>
+  </si>
+  <si>
+    <t>2016-01-07 17:14:53</t>
+  </si>
+  <si>
+    <t>REFACCIONES GENERALES DIESEL Y AGRICOLA, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>41240070-5D7B-4D4D-9ABA-576977167C6C</t>
+  </si>
+  <si>
+    <t>29241</t>
+  </si>
+  <si>
+    <t>2016-01-30 09:47:03</t>
+  </si>
+  <si>
+    <t>52285516-2B92-4979-B94E-885CDEF627F3</t>
+  </si>
+  <si>
+    <t>23735</t>
+  </si>
+  <si>
+    <t>2016-01-28 14:40:00</t>
+  </si>
+  <si>
+    <t>63345291-B03B-4334-A785-B6FF408D45F6</t>
+  </si>
+  <si>
+    <t>111729</t>
+  </si>
+  <si>
+    <t>2.07</t>
+  </si>
+  <si>
+    <t>2016-01-05 10:18:13</t>
+  </si>
+  <si>
+    <t>70741587-6EA2-4EA7-92BE-338E6C051817</t>
+  </si>
+  <si>
+    <t>4000342684</t>
+  </si>
+  <si>
+    <t>2016-01-08 17:20:13</t>
+  </si>
+  <si>
+    <t>A2AFD567-C658-4581-A935-A49EFF4AE896</t>
+  </si>
+  <si>
+    <t>26592</t>
+  </si>
+  <si>
+    <t>2016-01-07 12:50:06</t>
+  </si>
+  <si>
+    <t>A3F2BFF8-DC12-42C1-8DFD-1379F83AF3ED</t>
+  </si>
+  <si>
+    <t>82190</t>
+  </si>
+  <si>
+    <t>2016-01-25 13:42:11</t>
+  </si>
+  <si>
+    <t>AA045781-F5EE-4B52-B2C2-897BE27A890F</t>
+  </si>
+  <si>
+    <t>2218</t>
+  </si>
+  <si>
+    <t>2016-01-22 12:59:10</t>
+  </si>
+  <si>
+    <t>DAP941221SYA</t>
+  </si>
+  <si>
+    <t>Distribuidora de Autopartes Pescador, S.A. de C.V.</t>
+  </si>
+  <si>
+    <t>AA806308-D406-4992-BA93-A7A3302F4E94</t>
+  </si>
+  <si>
+    <t>193946</t>
+  </si>
+  <si>
+    <t>2016-01-18 10:17:04</t>
+  </si>
+  <si>
+    <t>AB0D23AD-98A9-49D6-8589-A839D715D610</t>
+  </si>
+  <si>
+    <t>83251</t>
+  </si>
+  <si>
+    <t>2016-01-11 09:32:18</t>
+  </si>
+  <si>
+    <t>AC701B06-FD78-4E88-875E-409E9FA5C448</t>
+  </si>
+  <si>
+    <t>4214</t>
+  </si>
+  <si>
+    <t>2016-01-31 14:53:37</t>
+  </si>
+  <si>
+    <t>AD5D73E2-22C2-4E35-8D47-0D8BB8187CD4</t>
+  </si>
+  <si>
+    <t>0000508954</t>
+  </si>
+  <si>
+    <t>2016-01-27 14:37:29</t>
+  </si>
+  <si>
+    <t>AF22CFF9-B12A-47F6-9E42-55B8B1364967</t>
+  </si>
+  <si>
+    <t>84287</t>
+  </si>
+  <si>
+    <t>2016-01-09 13:19:17</t>
+  </si>
+  <si>
+    <t>B1C97776-D3CE-46D0-814C-B37B5098FB2A</t>
+  </si>
+  <si>
+    <t>756</t>
+  </si>
+  <si>
+    <t>2016-01-18 16:08:47</t>
+  </si>
+  <si>
+    <t>B8CF7000-EAE2-43D4-9308-3F622DC3BDCF</t>
+  </si>
+  <si>
+    <t>5977</t>
+  </si>
+  <si>
+    <t>2016-01-31 09:23:17</t>
+  </si>
+  <si>
+    <t>B56B2208-E8B4-474A-9227-F7B3BF78B426</t>
+  </si>
+  <si>
+    <t>0000505929</t>
+  </si>
+  <si>
+    <t>2016-01-28 09:57:13</t>
+  </si>
+  <si>
+    <t>AEAJ811102AP0</t>
+  </si>
+  <si>
+    <t>Janett Angelica Acevo Aguirre</t>
+  </si>
+  <si>
+    <t>B4757C84-9D71-357F-74DF-5286A44CC55E</t>
+  </si>
+  <si>
+    <t>3857</t>
+  </si>
+  <si>
+    <t>BA8C0020-3E6F-4911-A2C2-06C2E33D34B2</t>
+  </si>
+  <si>
+    <t>27627</t>
+  </si>
+  <si>
+    <t>2016-01-21 11:48:04</t>
+  </si>
+  <si>
+    <t>BC0F49DA-0D1A-4551-8A67-63A19134CA97</t>
+  </si>
+  <si>
+    <t>12191</t>
+  </si>
+  <si>
+    <t>2016-01-28 12:20:13</t>
+  </si>
+  <si>
+    <t>BE2B0550-A851-4EC1-BDC9-E17FFF6C7F6B</t>
+  </si>
+  <si>
+    <t>108135</t>
+  </si>
+  <si>
+    <t>2016-01-04 13:19:26</t>
+  </si>
+  <si>
+    <t>BE3D9FE2-2786-4AD0-BB09-151B3551B0B3</t>
+  </si>
+  <si>
+    <t>81792</t>
+  </si>
+  <si>
+    <t>2016-01-21 11:10:31</t>
+  </si>
+  <si>
+    <t>BF5FB0BB-F32B-4258-84CF-BE2500CD8AA3</t>
+  </si>
+  <si>
+    <t>83705</t>
+  </si>
+  <si>
+    <t>2016-01-25 11:54:57</t>
+  </si>
+  <si>
+    <t>BFA158AB-9087-864B-B3F1-515589656DED</t>
+  </si>
+  <si>
+    <t>5636</t>
+  </si>
+  <si>
+    <t>2016-01-19 11:07:47</t>
+  </si>
+  <si>
+    <t>GPG870312998</t>
+  </si>
+  <si>
+    <t>GRUPO PAPELERO GUTIERREZ, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>BFC803F3-96E7-4D6C-935B-0A03A10429FA</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>2016-01-19 16:03:00</t>
+  </si>
+  <si>
+    <t>C7EC661C-319B-4F2B-825C-1ABD693FE0D2</t>
+  </si>
+  <si>
+    <t>4000350119</t>
+  </si>
+  <si>
+    <t>2016-01-16 12:27:01</t>
+  </si>
+  <si>
+    <t>LEO001204QNA</t>
+  </si>
+  <si>
+    <t>LUBRICANTES ESPECIALIZADOS DE ORIENTE S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>C16FA466-35EF-46F5-96AE-28970A06033D</t>
+  </si>
+  <si>
+    <t>137354</t>
+  </si>
+  <si>
+    <t>2016-01-23 10:44:59</t>
+  </si>
+  <si>
+    <t>C70CD1D1-DF67-4D48-B4BD-7A62DB410901</t>
+  </si>
+  <si>
+    <t>9396</t>
+  </si>
+  <si>
+    <t>2016-01-09 10:44:10</t>
+  </si>
+  <si>
+    <t>C412F0D8-3732-40F7-9CA3-E89F0FDE8D9E</t>
+  </si>
+  <si>
+    <t>186183</t>
+  </si>
+  <si>
+    <t>2016-01-06 20:42:07</t>
+  </si>
+  <si>
+    <t>C8397B73-C236-D84F-B4B9-967C783BE9DF</t>
+  </si>
+  <si>
+    <t>99746</t>
+  </si>
+  <si>
+    <t>2016-01-07 19:08:14</t>
+  </si>
+  <si>
+    <t>CC66C959-4366-48E7-A71F-B86698000656</t>
+  </si>
+  <si>
+    <t>26551</t>
+  </si>
+  <si>
+    <t>2016-01-31 09:23:29</t>
+  </si>
+  <si>
+    <t>CF9BF0B1-E738-4520-80E3-6730EFEADE8F</t>
+  </si>
+  <si>
+    <t>0000505927</t>
+  </si>
+  <si>
+    <t>2016-01-20 09:31:12</t>
+  </si>
+  <si>
+    <t>D3DF8DB7-362D-48AE-BB4B-1C1ED17CACD0</t>
+  </si>
+  <si>
+    <t>23310</t>
+  </si>
+  <si>
+    <t>2016-01-08 18:13:43</t>
+  </si>
+  <si>
+    <t>D3EB625C-EF25-46C5-93D4-B09CFAAEADFC</t>
+  </si>
+  <si>
+    <t>26698</t>
+  </si>
+  <si>
+    <t>2016-01-15 17:48:04</t>
+  </si>
+  <si>
+    <t>D04D97A7-2A7B-4D35-BD8E-07B28E576EC8</t>
+  </si>
+  <si>
+    <t>27144</t>
+  </si>
+  <si>
+    <t>2016-01-05 15:23:21</t>
+  </si>
+  <si>
+    <t>D6A8E348-8BCC-4312-BE56-D6113B8BBE47</t>
+  </si>
+  <si>
+    <t>0000484297</t>
+  </si>
+  <si>
+    <t>2016-01-20 19:25:41</t>
+  </si>
+  <si>
+    <t>RSM920701EP2</t>
+  </si>
+  <si>
+    <t>Radio Shack de Mexico S.A de C.V.</t>
+  </si>
+  <si>
+    <t>D8E5638A-1285-44CD-AD8E-0292632B405D</t>
+  </si>
+  <si>
+    <t>2016-01-15 12:13:12</t>
+  </si>
+  <si>
+    <t>AME960704IW8</t>
+  </si>
+  <si>
+    <t>AUTOPARTES MECANICAS S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>D34F6FED-B7FD-4679-B8EB-9AF25ED9924B</t>
+  </si>
+  <si>
+    <t>8609</t>
+  </si>
+  <si>
+    <t>2016-01-22 16:02:53</t>
+  </si>
+  <si>
+    <t>D46E241C-FCAE-6A4E-90B9-063BBB2C250B</t>
+  </si>
+  <si>
+    <t>5622</t>
+  </si>
+  <si>
+    <t>2016-01-11 10:20:58</t>
+  </si>
+  <si>
+    <t>D91C5B29-EB27-49C8-AAE2-7C2882EE299D</t>
+  </si>
+  <si>
+    <t>176871</t>
+  </si>
+  <si>
+    <t>96.78</t>
+  </si>
+  <si>
+    <t>2016-01-22 19:04:29</t>
+  </si>
+  <si>
+    <t>D094AB61-18F8-4879-8530-2A93B9238E74</t>
+  </si>
+  <si>
+    <t>27450</t>
+  </si>
+  <si>
+    <t>2016-01-12 13:59:36</t>
+  </si>
+  <si>
+    <t>D209B130-ADDC-47D8-A26F-74A8F742182E</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>2016-01-27 10:54:45</t>
+  </si>
+  <si>
+    <t>D0142336-A487-499C-B4B9-84A1031BA09E</t>
+  </si>
+  <si>
+    <t>84229</t>
+  </si>
+  <si>
+    <t>2016-01-02 12:56:39</t>
+  </si>
+  <si>
+    <t>D464109A-1676-4F44-870C-0BFD60CFF2C9</t>
+  </si>
+  <si>
+    <t>109966</t>
+  </si>
+  <si>
+    <t>15.82</t>
+  </si>
+  <si>
+    <t>2016-01-17 18:56:12</t>
+  </si>
+  <si>
+    <t>HDM001017AS1</t>
+  </si>
+  <si>
+    <t>HOME DEPOT MEXICO S. DE R.L. DE C.V.</t>
+  </si>
+  <si>
+    <t>DA0E47F5-A1E2-754C-D761-A941BD90545C</t>
+  </si>
+  <si>
+    <t>326817</t>
+  </si>
+  <si>
+    <t>2016-01-28 12:20:21</t>
+  </si>
+  <si>
+    <t>DA03AD0E-DB70-4306-A4BE-CF10B631D5D0</t>
+  </si>
+  <si>
+    <t>108143</t>
+  </si>
+  <si>
+    <t>2016-01-21 12:31:47</t>
+  </si>
+  <si>
+    <t>DA992D0F-E5C4-4B67-8127-427661E07E89</t>
+  </si>
+  <si>
+    <t>12194</t>
+  </si>
+  <si>
+    <t>2016-01-29 13:27:42</t>
+  </si>
+  <si>
+    <t>MAVG801216RM0</t>
+  </si>
+  <si>
+    <t>GASPAR MACHORRO VELEZ</t>
+  </si>
+  <si>
+    <t>DC6C86BB-1892-4880-A2AD-0EEF1D01CF64</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>335.66</t>
+  </si>
+  <si>
+    <t>314.69</t>
+  </si>
+  <si>
+    <t>2016-01-19 11:24:05</t>
+  </si>
+  <si>
+    <t>DE459F1B-FC6C-4B4D-9956-F0AFB1886311</t>
+  </si>
+  <si>
+    <t>0000494968</t>
+  </si>
+  <si>
+    <t>2016-01-14 17:11:14</t>
+  </si>
+  <si>
+    <t>PDM841029GX1</t>
+  </si>
+  <si>
+    <t>PROVEEDORA DIESEL MEX, S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>DF3B3A64-2301-4A49-9A39-95E5ACAA2DEE</t>
+  </si>
+  <si>
+    <t>21950</t>
+  </si>
+  <si>
+    <t>2016-01-28 13:02:09</t>
+  </si>
+  <si>
+    <t>DFF6121D-3597-D148-B908-C999DE8A3C1F</t>
+  </si>
+  <si>
+    <t>9425</t>
+  </si>
+  <si>
+    <t>2016-01-23 12:44:44</t>
+  </si>
+  <si>
+    <t>E6DC1686-2B77-4D84-BB2A-CEB80ECA9353</t>
+  </si>
+  <si>
+    <t>23505</t>
+  </si>
+  <si>
+    <t>2016-01-11 10:53:13</t>
+  </si>
+  <si>
+    <t>E24ECE44-3CB0-41C7-99C9-FECCFB682ABE</t>
+  </si>
+  <si>
+    <t>176875</t>
+  </si>
+  <si>
+    <t>49.35</t>
+  </si>
+  <si>
+    <t>2016-01-18 13:26:49</t>
+  </si>
+  <si>
+    <t>E228BA0F-08C0-4200-BD97-72AFED7CC7DD</t>
+  </si>
+  <si>
+    <t>12907</t>
+  </si>
+  <si>
+    <t>2016-01-01 11:19:13</t>
+  </si>
+  <si>
+    <t>E739EEF2-0B8E-4E95-B428-A82947ACD3A4</t>
+  </si>
+  <si>
+    <t>05005075103</t>
+  </si>
+  <si>
+    <t>2016-01-21 14:44:49</t>
+  </si>
+  <si>
+    <t>E2119DF4-2FAA-4EB9-9DA5-D84490841E51</t>
+  </si>
+  <si>
+    <t>6015</t>
+  </si>
+  <si>
+    <t>2016-01-12 17:45:54</t>
+  </si>
+  <si>
+    <t>E2537CB2-1904-498E-BB01-CC0EEE010C32</t>
+  </si>
+  <si>
+    <t>289399</t>
+  </si>
+  <si>
+    <t>1184.00</t>
+  </si>
+  <si>
+    <t>2016-01-08 08:57:28</t>
+  </si>
+  <si>
+    <t>E5671F40-7986-41D3-AF94-F023833F87FD</t>
+  </si>
+  <si>
+    <t>26552</t>
+  </si>
+  <si>
+    <t>2016-01-05 13:33:21</t>
+  </si>
+  <si>
+    <t>EAC0A003-435D-4D23-9E0E-4692C4CF5C39</t>
+  </si>
+  <si>
+    <t>289</t>
+  </si>
+  <si>
+    <t>2016-01-05 16:56:48</t>
+  </si>
+  <si>
+    <t>EBE43D59-C52A-4400-880C-78E39C3ABCF7</t>
+  </si>
+  <si>
+    <t>7577490</t>
+  </si>
+  <si>
+    <t>17.67</t>
+  </si>
+  <si>
+    <t>2016-01-19 19:49:25</t>
+  </si>
+  <si>
+    <t>EF0BDBC5-1C3D-148E-EBED-917111F93B8F</t>
+  </si>
+  <si>
+    <t>106315</t>
+  </si>
+  <si>
+    <t>2016-01-12 14:20:30</t>
+  </si>
+  <si>
+    <t>EF46DF66-9388-4BA2-9605-14ADAC802F0D</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>2016-01-20 19:45:22</t>
+  </si>
+  <si>
+    <t>NWM9709244W4</t>
+  </si>
+  <si>
+    <t>Nueva Wal Mart de México, S. de R. L. de C.V.</t>
+  </si>
+  <si>
+    <t>F1E72713-5468-40FD-A4D9-856E1DA8CC2A</t>
+  </si>
+  <si>
+    <t>56656</t>
+  </si>
+  <si>
+    <t>2016-01-27 11:13:01</t>
+  </si>
+  <si>
+    <t>F3E9AFB5-BC45-4C91-B2D6-6A597BCF982A</t>
+  </si>
+  <si>
+    <t>6076</t>
+  </si>
+  <si>
+    <t>2016-01-25 11:23:25</t>
+  </si>
+  <si>
+    <t>F4C9AF10-CCF7-45CD-8E23-B84F6FF91588</t>
+  </si>
+  <si>
+    <t>84000</t>
+  </si>
+  <si>
+    <t>2016-01-22 13:01:51</t>
+  </si>
+  <si>
+    <t>F40B9D2D-6DBF-4201-A4A7-1A5CB16D8394</t>
+  </si>
+  <si>
+    <t>1074462</t>
+  </si>
+  <si>
+    <t>2016-01-01 16:10:43</t>
+  </si>
+  <si>
+    <t>F86F3735-BECF-43E8-BA7E-5A1E9B5BFA28</t>
+  </si>
+  <si>
+    <t>65503684079</t>
+  </si>
+  <si>
+    <t>2016-01-08 18:13:53</t>
+  </si>
+  <si>
+    <t>F095BDDC-D170-4284-85B4-F68B50151BC7</t>
+  </si>
+  <si>
+    <t>26774</t>
+  </si>
+  <si>
+    <t>2016-01-12 22:18:09</t>
+  </si>
+  <si>
+    <t>MASR630313HM8</t>
+  </si>
+  <si>
+    <t>ROBERTO MARTINEZ SILVA</t>
+  </si>
+  <si>
+    <t>F919DF7F-C911-49D9-B317-C02D0E1DF5D9</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>2016-01-20 12:07:27</t>
+  </si>
+  <si>
+    <t>DRO900507AC9</t>
+  </si>
+  <si>
+    <t>DISTRIBUIDORA DE REFACCIONES ORIGINALES DIESEL SA DE CV</t>
+  </si>
+  <si>
+    <t>F2285B8B-DC5E-49A8-9AFA-8ED7FDBA64A4</t>
+  </si>
+  <si>
+    <t>179524</t>
+  </si>
+  <si>
+    <t>2016-01-06 12:50:46</t>
+  </si>
+  <si>
+    <t>REAK871208LJ0</t>
+  </si>
+  <si>
+    <t>KARLA REYES AGUIRRE</t>
+  </si>
+  <si>
+    <t>F8239BB6-26F9-4CB8-8754-D858784C3A36</t>
+  </si>
+  <si>
+    <t>1596</t>
+  </si>
+  <si>
+    <t>2016-01-27 15:09:07</t>
+  </si>
+  <si>
+    <t>LELA731126N98</t>
+  </si>
+  <si>
+    <t>ANGELICA LEON LIMON</t>
+  </si>
+  <si>
+    <t>F8327B94-46DD-4648-96B2-1CC615E6AB2E</t>
+  </si>
+  <si>
+    <t>36620</t>
+  </si>
+  <si>
+    <t>2016-01-20 14:00:24</t>
+  </si>
+  <si>
+    <t>F22308A9-1CCB-43FE-BC91-643277A1498F</t>
+  </si>
+  <si>
+    <t>000000582</t>
+  </si>
+  <si>
+    <t>2016-01-20 18:20:46</t>
+  </si>
+  <si>
+    <t>FA87EE52-5D88-4EAF-93BD-20D54429CC87</t>
+  </si>
+  <si>
+    <t>0000496496</t>
+  </si>
+  <si>
+    <t>2016-01-01 08:36:43</t>
+  </si>
+  <si>
+    <t>FD6ADF06-8D7C-4703-9005-EAD89F6F1326</t>
+  </si>
+  <si>
+    <t>2016-01-14 17:09:50</t>
+  </si>
+  <si>
+    <t>FE0C5E3E-FE46-44FD-B848-592085934128</t>
+  </si>
+  <si>
+    <t>21949</t>
   </si>
 </sst>
 </file>
@@ -411,7 +2493,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,15 +2504,15 @@
     <col min="1" max="1" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="23.422852" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="42.418213" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="111.972656" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="43.560791" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.283447000000001" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="21.137695" bestFit="true" customWidth="true" style="0"/>
     <col min="10" max="10" width="19.995117" bestFit="true" customWidth="true" style="0"/>
     <col min="11" max="11" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="12" max="12" width="21.137695" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -522,20 +2604,6022 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
       <c r="G3">
-        <v>3042</v>
+        <v>236.78</v>
       </c>
       <c r="I3">
+        <v>37.89</v>
+      </c>
+      <c r="L3">
+        <v>274.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>120</v>
+      </c>
+      <c r="I4">
+        <v>19.2</v>
+      </c>
+      <c r="L4">
+        <v>139.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>208.76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5">
+        <v>33.4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5">
+        <v>242.16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>1880.25</v>
+      </c>
+      <c r="I6">
+        <v>291.15</v>
+      </c>
+      <c r="L6">
+        <v>2171.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>1174.55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7">
+        <v>187.93</v>
+      </c>
+      <c r="L7">
+        <v>1362.48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>1285.18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8">
+        <v>185.06</v>
+      </c>
+      <c r="L8">
+        <v>1341.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9">
+        <v>70.83</v>
+      </c>
+      <c r="I9">
+        <v>11.33</v>
+      </c>
+      <c r="L9">
+        <v>82.16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>1174.55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10">
+        <v>187.93</v>
+      </c>
+      <c r="L10">
+        <v>1362.48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11">
+        <v>593.16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11">
+        <v>94.91</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="L11">
+        <v>688.0700000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <v>779.63</v>
+      </c>
+      <c r="I12">
+        <v>124.74</v>
+      </c>
+      <c r="L12">
+        <v>904.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13">
+        <v>899.84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <v>143.98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <v>1043.82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>5695.9</v>
+      </c>
+      <c r="I14">
+        <v>911.34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14">
+        <v>6607.24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15">
+        <v>331.8</v>
+      </c>
+      <c r="I15">
+        <v>53.09</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+      <c r="L15">
+        <v>384.89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16">
+        <v>1780.3</v>
+      </c>
+      <c r="I16">
+        <v>284.85</v>
+      </c>
+      <c r="L16">
+        <v>2065.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17">
+        <v>179.46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>28.71</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>208.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18">
+        <v>1351.12</v>
+      </c>
+      <c r="I18">
+        <v>209.43</v>
+      </c>
+      <c r="L18">
+        <v>1560.55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>84</v>
+      </c>
+      <c r="D19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="I19">
+        <v>13.79</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20">
+        <v>55599.1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20">
+        <v>8895.860000000001</v>
+      </c>
+      <c r="K20" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20">
+        <v>64494.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21">
+        <v>2885.71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21">
+        <v>461.71</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21">
+        <v>3347.42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>97</v>
+      </c>
+      <c r="F22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22">
+        <v>1872</v>
+      </c>
+      <c r="I22">
+        <v>299.52</v>
+      </c>
+      <c r="L22">
+        <v>2171.52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23">
+        <v>8674.620000000001</v>
+      </c>
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23">
+        <v>763.37</v>
+      </c>
+      <c r="L23">
+        <v>5534.41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>107</v>
+      </c>
+      <c r="E24" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" t="s">
+        <v>109</v>
+      </c>
+      <c r="G24">
+        <v>5244.442292</v>
+      </c>
+      <c r="I24">
+        <v>839.1107940000001</v>
+      </c>
+      <c r="L24">
+        <v>6083.553086</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" t="s">
+        <v>112</v>
+      </c>
+      <c r="G25">
+        <v>1950.47</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="I25">
+        <v>312.08</v>
+      </c>
+      <c r="K25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L25">
+        <v>2262.55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26">
+        <v>854.6</v>
+      </c>
+      <c r="I26">
+        <v>136.73</v>
+      </c>
+      <c r="L26">
+        <v>991.33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" t="s">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" t="s">
+        <v>122</v>
+      </c>
+      <c r="G27">
+        <v>432</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="I27">
+        <v>69</v>
+      </c>
+      <c r="L27">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>38</v>
+      </c>
+      <c r="E28" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28">
+        <v>670.09</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28">
+        <v>107.2144</v>
+      </c>
+      <c r="L28">
+        <v>777.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" t="s">
+        <v>127</v>
+      </c>
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="G29">
+        <v>228.58</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I29">
+        <v>36.57</v>
+      </c>
+      <c r="K29" t="s">
+        <v>30</v>
+      </c>
+      <c r="L29">
+        <v>265.15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E30" t="s">
+        <v>132</v>
+      </c>
+      <c r="F30" t="s">
+        <v>133</v>
+      </c>
+      <c r="G30">
+        <v>894.79</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="I30">
+        <v>143.17</v>
+      </c>
+      <c r="L30">
+        <v>1037.96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31">
+        <v>799.76</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31">
+        <v>127.96</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="L31">
+        <v>927.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>137</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>138</v>
+      </c>
+      <c r="F32" t="s">
+        <v>139</v>
+      </c>
+      <c r="G32">
+        <v>2330.13</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
+      </c>
+      <c r="I32">
+        <v>372.8208</v>
+      </c>
+      <c r="L32">
+        <v>2702.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>140</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E33" t="s">
+        <v>141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>142</v>
+      </c>
+      <c r="G33">
+        <v>447.54</v>
+      </c>
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33">
+        <v>71.61</v>
+      </c>
+      <c r="K33" t="s">
+        <v>30</v>
+      </c>
+      <c r="L33">
+        <v>519.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>144</v>
+      </c>
+      <c r="F34" t="s">
+        <v>145</v>
+      </c>
+      <c r="G34">
+        <v>544.22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>29</v>
+      </c>
+      <c r="I34">
+        <v>87.08</v>
+      </c>
+      <c r="K34" t="s">
+        <v>30</v>
+      </c>
+      <c r="L34">
+        <v>631.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" t="s">
+        <v>146</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35">
+        <v>3286.11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>29</v>
+      </c>
+      <c r="L35">
+        <v>3286.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" t="s">
+        <v>153</v>
+      </c>
+      <c r="E36" t="s">
+        <v>154</v>
+      </c>
+      <c r="F36" t="s">
+        <v>155</v>
+      </c>
+      <c r="G36">
+        <v>321.66</v>
+      </c>
+      <c r="I36">
+        <v>51.46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>156</v>
+      </c>
+      <c r="L36">
+        <v>368.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" t="s">
+        <v>159</v>
+      </c>
+      <c r="G37">
+        <v>954.9</v>
+      </c>
+      <c r="I37">
+        <v>152.78</v>
+      </c>
+      <c r="L37">
+        <v>1107.68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>160</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" t="s">
+        <v>153</v>
+      </c>
+      <c r="E38" t="s">
+        <v>161</v>
+      </c>
+      <c r="F38" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38">
+        <v>138.41</v>
+      </c>
+      <c r="I38">
+        <v>22.15</v>
+      </c>
+      <c r="J38" t="s">
+        <v>163</v>
+      </c>
+      <c r="L38">
+        <v>155.02</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="E39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G39">
+        <v>447.56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>29</v>
+      </c>
+      <c r="I39">
+        <v>71.61</v>
+      </c>
+      <c r="K39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39">
+        <v>519.17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="D40" t="s">
+        <v>169</v>
+      </c>
+      <c r="E40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F40" t="s">
+        <v>171</v>
+      </c>
+      <c r="G40">
+        <v>675.8</v>
+      </c>
+      <c r="H40" t="s">
+        <v>29</v>
+      </c>
+      <c r="I40">
+        <v>108.13</v>
+      </c>
+      <c r="L40">
+        <v>783.9299999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E41" t="s">
+        <v>175</v>
+      </c>
+      <c r="F41" t="s">
+        <v>176</v>
+      </c>
+      <c r="G41">
+        <v>1250</v>
+      </c>
+      <c r="I41">
+        <v>200</v>
+      </c>
+      <c r="L41">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" t="s">
+        <v>26</v>
+      </c>
+      <c r="E42" t="s">
+        <v>178</v>
+      </c>
+      <c r="F42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G42">
+        <v>115.03</v>
+      </c>
+      <c r="H42" t="s">
+        <v>29</v>
+      </c>
+      <c r="I42">
+        <v>18.4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>30</v>
+      </c>
+      <c r="L42">
+        <v>133.43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="A43" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>181</v>
+      </c>
+      <c r="D43" t="s">
+        <v>182</v>
+      </c>
+      <c r="E43" t="s">
+        <v>183</v>
+      </c>
+      <c r="F43" t="s">
+        <v>184</v>
+      </c>
+      <c r="G43">
+        <v>126.72</v>
+      </c>
+      <c r="I43">
+        <v>20.28</v>
+      </c>
+      <c r="L43">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" t="s">
+        <v>185</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>186</v>
+      </c>
+      <c r="D44" t="s">
+        <v>187</v>
+      </c>
+      <c r="E44" t="s">
+        <v>188</v>
+      </c>
+      <c r="F44" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44">
+        <v>86.20999999999999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>190</v>
+      </c>
+      <c r="I44">
+        <v>13.79</v>
+      </c>
+      <c r="J44" t="s">
+        <v>190</v>
+      </c>
+      <c r="L44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>173</v>
+      </c>
+      <c r="D45" t="s">
+        <v>174</v>
+      </c>
+      <c r="E45" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45">
+        <v>4941.89</v>
+      </c>
+      <c r="I45">
+        <v>790.7</v>
+      </c>
+      <c r="L45">
+        <v>5732.59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" t="s">
+        <v>38</v>
+      </c>
+      <c r="E46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46">
+        <v>72.41</v>
+      </c>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+      <c r="I46">
+        <v>11.59</v>
+      </c>
+      <c r="L46">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>198</v>
+      </c>
+      <c r="D47" t="s">
+        <v>199</v>
+      </c>
+      <c r="E47" t="s">
+        <v>200</v>
+      </c>
+      <c r="F47" t="s">
+        <v>201</v>
+      </c>
+      <c r="G47">
+        <v>280</v>
+      </c>
+      <c r="I47">
+        <v>44.8</v>
+      </c>
+      <c r="L47">
+        <v>324.8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>203</v>
+      </c>
+      <c r="D48" t="s">
+        <v>204</v>
+      </c>
+      <c r="E48" t="s">
+        <v>205</v>
+      </c>
+      <c r="F48" t="s">
+        <v>206</v>
+      </c>
+      <c r="G48">
+        <v>1120.69</v>
+      </c>
+      <c r="H48" t="s">
+        <v>29</v>
+      </c>
+      <c r="I48">
+        <v>179.31</v>
+      </c>
+      <c r="L48">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>207</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
+      </c>
+      <c r="C49" t="s">
+        <v>37</v>
+      </c>
+      <c r="D49" t="s">
+        <v>38</v>
+      </c>
+      <c r="E49" t="s">
+        <v>208</v>
+      </c>
+      <c r="F49" t="s">
+        <v>209</v>
+      </c>
+      <c r="G49">
+        <v>504.27</v>
+      </c>
+      <c r="H49" t="s">
+        <v>29</v>
+      </c>
+      <c r="I49">
+        <v>80.68000000000001</v>
+      </c>
+      <c r="L49">
+        <v>584.95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>152</v>
+      </c>
+      <c r="D50" t="s">
+        <v>153</v>
+      </c>
+      <c r="E50" t="s">
+        <v>211</v>
+      </c>
+      <c r="F50" t="s">
+        <v>212</v>
+      </c>
+      <c r="G50">
+        <v>197.41</v>
+      </c>
+      <c r="I50">
+        <v>31.59</v>
+      </c>
+      <c r="J50" t="s">
+        <v>163</v>
+      </c>
+      <c r="L50">
+        <v>223.46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+      <c r="E51" t="s">
+        <v>216</v>
+      </c>
+      <c r="F51" t="s">
+        <v>217</v>
+      </c>
+      <c r="G51">
+        <v>172.41</v>
+      </c>
+      <c r="H51" t="s">
+        <v>29</v>
+      </c>
+      <c r="I51">
+        <v>27.59</v>
+      </c>
+      <c r="L51">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>219</v>
+      </c>
+      <c r="D52" t="s">
+        <v>220</v>
+      </c>
+      <c r="E52" t="s">
+        <v>221</v>
+      </c>
+      <c r="F52" t="s">
+        <v>222</v>
+      </c>
+      <c r="G52">
+        <v>1675.87</v>
+      </c>
+      <c r="H52" t="s">
+        <v>223</v>
+      </c>
+      <c r="I52">
+        <v>241.1</v>
+      </c>
+      <c r="L52">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>25</v>
+      </c>
+      <c r="D53" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" t="s">
+        <v>225</v>
+      </c>
+      <c r="F53" t="s">
+        <v>226</v>
+      </c>
+      <c r="G53">
+        <v>3556.26</v>
+      </c>
+      <c r="H53" t="s">
+        <v>29</v>
+      </c>
+      <c r="I53">
+        <v>569</v>
+      </c>
+      <c r="K53" t="s">
+        <v>30</v>
+      </c>
+      <c r="L53">
+        <v>4125.26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54">
+        <v>2419.96</v>
+      </c>
+      <c r="H54" t="s">
+        <v>29</v>
+      </c>
+      <c r="I54">
+        <v>387.19</v>
+      </c>
+      <c r="K54" t="s">
+        <v>30</v>
+      </c>
+      <c r="L54">
+        <v>2807.15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>230</v>
+      </c>
+      <c r="B55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C55" t="s">
+        <v>231</v>
+      </c>
+      <c r="D55" t="s">
+        <v>232</v>
+      </c>
+      <c r="E55" t="s">
+        <v>233</v>
+      </c>
+      <c r="F55" t="s">
+        <v>234</v>
+      </c>
+      <c r="G55">
+        <v>256.62</v>
+      </c>
+      <c r="H55" t="s">
+        <v>235</v>
+      </c>
+      <c r="I55">
+        <v>35.23</v>
+      </c>
+      <c r="L55">
+        <v>255.41</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>236</v>
+      </c>
+      <c r="B56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C56" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" t="s">
+        <v>90</v>
+      </c>
+      <c r="E56" t="s">
+        <v>237</v>
+      </c>
+      <c r="F56" t="s">
+        <v>238</v>
+      </c>
+      <c r="G56">
+        <v>446</v>
+      </c>
+      <c r="H56" t="s">
+        <v>29</v>
+      </c>
+      <c r="I56">
+        <v>71.36</v>
+      </c>
+      <c r="K56" t="s">
+        <v>30</v>
+      </c>
+      <c r="L56">
+        <v>517.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" t="s">
+        <v>240</v>
+      </c>
+      <c r="F57" t="s">
+        <v>241</v>
+      </c>
+      <c r="G57">
+        <v>243</v>
+      </c>
+      <c r="H57" t="s">
+        <v>29</v>
+      </c>
+      <c r="I57">
+        <v>38.88</v>
+      </c>
+      <c r="K57" t="s">
+        <v>30</v>
+      </c>
+      <c r="L57">
+        <v>281.88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>242</v>
+      </c>
+      <c r="B58" t="s">
+        <v>24</v>
+      </c>
+      <c r="C58" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E58" t="s">
+        <v>243</v>
+      </c>
+      <c r="F58" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58">
+        <v>392.26</v>
+      </c>
+      <c r="H58" t="s">
+        <v>29</v>
+      </c>
+      <c r="I58">
+        <v>62.76</v>
+      </c>
+      <c r="K58" t="s">
+        <v>30</v>
+      </c>
+      <c r="L58">
+        <v>455.02</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>245</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D59" t="s">
+        <v>153</v>
+      </c>
+      <c r="E59" t="s">
+        <v>246</v>
+      </c>
+      <c r="F59" t="s">
+        <v>247</v>
+      </c>
+      <c r="G59">
+        <v>242.58</v>
+      </c>
+      <c r="I59">
+        <v>38.81</v>
+      </c>
+      <c r="J59" t="s">
+        <v>248</v>
+      </c>
+      <c r="L59">
+        <v>274.05</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
+        <v>249</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>25</v>
+      </c>
+      <c r="D60" t="s">
+        <v>26</v>
+      </c>
+      <c r="E60" t="s">
+        <v>250</v>
+      </c>
+      <c r="F60" t="s">
+        <v>251</v>
+      </c>
+      <c r="G60">
+        <v>1961.28</v>
+      </c>
+      <c r="H60" t="s">
+        <v>29</v>
+      </c>
+      <c r="I60">
+        <v>313.8</v>
+      </c>
+      <c r="K60" t="s">
+        <v>30</v>
+      </c>
+      <c r="L60">
+        <v>2275.08</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61" t="s">
+        <v>252</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" t="s">
+        <v>253</v>
+      </c>
+      <c r="F61" t="s">
+        <v>254</v>
+      </c>
+      <c r="G61">
+        <v>2507</v>
+      </c>
+      <c r="I61">
+        <v>388.2</v>
+      </c>
+      <c r="L61">
+        <v>2895.2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62" t="s">
+        <v>255</v>
+      </c>
+      <c r="B62" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" t="s">
+        <v>66</v>
+      </c>
+      <c r="E62" t="s">
+        <v>256</v>
+      </c>
+      <c r="F62" t="s">
+        <v>257</v>
+      </c>
+      <c r="G62">
+        <v>331.8</v>
+      </c>
+      <c r="I62">
+        <v>53.09</v>
+      </c>
+      <c r="J62" t="s">
+        <v>29</v>
+      </c>
+      <c r="L62">
+        <v>384.89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63" t="s">
+        <v>23</v>
+      </c>
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D63" t="s">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>258</v>
+      </c>
+      <c r="F63" t="s">
+        <v>259</v>
+      </c>
+      <c r="G63">
+        <v>491.1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+      <c r="I63">
+        <v>78.58</v>
+      </c>
+      <c r="K63" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63">
+        <v>569.6799999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" t="s">
+        <v>260</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s">
+        <v>261</v>
+      </c>
+      <c r="D64" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" t="s">
+        <v>264</v>
+      </c>
+      <c r="G64">
+        <v>4208.8</v>
+      </c>
+      <c r="I64">
+        <v>673.41</v>
+      </c>
+      <c r="L64">
+        <v>4882.21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65" t="s">
+        <v>265</v>
+      </c>
+      <c r="B65" t="s">
+        <v>24</v>
+      </c>
+      <c r="C65" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>266</v>
+      </c>
+      <c r="F65" t="s">
+        <v>267</v>
+      </c>
+      <c r="G65">
+        <v>230.26</v>
+      </c>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65">
+        <v>36.84</v>
+      </c>
+      <c r="K65" t="s">
+        <v>30</v>
+      </c>
+      <c r="L65">
+        <v>267.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66" t="s">
+        <v>268</v>
+      </c>
+      <c r="B66" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" t="s">
+        <v>153</v>
+      </c>
+      <c r="E66" t="s">
+        <v>269</v>
+      </c>
+      <c r="F66" t="s">
+        <v>270</v>
+      </c>
+      <c r="G66">
+        <v>240.66</v>
+      </c>
+      <c r="I66">
+        <v>38.51</v>
+      </c>
+      <c r="J66" t="s">
+        <v>271</v>
+      </c>
+      <c r="L66">
+        <v>269.54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B67" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" t="s">
+        <v>100</v>
+      </c>
+      <c r="D67" t="s">
+        <v>101</v>
+      </c>
+      <c r="E67" t="s">
+        <v>273</v>
+      </c>
+      <c r="F67" t="s">
+        <v>274</v>
+      </c>
+      <c r="G67">
+        <v>811.88</v>
+      </c>
+      <c r="H67" t="s">
+        <v>275</v>
+      </c>
+      <c r="I67">
+        <v>71.45</v>
+      </c>
+      <c r="L67">
+        <v>517.98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" t="s">
+        <v>276</v>
+      </c>
+      <c r="B68" t="s">
+        <v>13</v>
+      </c>
+      <c r="C68" t="s">
+        <v>277</v>
+      </c>
+      <c r="D68" t="s">
+        <v>278</v>
+      </c>
+      <c r="E68" t="s">
+        <v>279</v>
+      </c>
+      <c r="F68" t="s">
+        <v>280</v>
+      </c>
+      <c r="G68">
+        <v>1850</v>
+      </c>
+      <c r="I68">
+        <v>296</v>
+      </c>
+      <c r="L68">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69" t="s">
+        <v>281</v>
+      </c>
+      <c r="B69" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" t="s">
+        <v>203</v>
+      </c>
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" t="s">
+        <v>282</v>
+      </c>
+      <c r="F69" t="s">
+        <v>283</v>
+      </c>
+      <c r="G69">
+        <v>560.34</v>
+      </c>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69">
+        <v>89.66</v>
+      </c>
+      <c r="L69">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" t="s">
+        <v>152</v>
+      </c>
+      <c r="D70" t="s">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>285</v>
+      </c>
+      <c r="F70" t="s">
+        <v>286</v>
+      </c>
+      <c r="G70">
+        <v>675.05</v>
+      </c>
+      <c r="I70">
+        <v>108.01</v>
+      </c>
+      <c r="J70" t="s">
+        <v>287</v>
+      </c>
+      <c r="L70">
+        <v>756.0599999999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71" t="s">
+        <v>288</v>
+      </c>
+      <c r="B71" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" t="s">
+        <v>26</v>
+      </c>
+      <c r="E71" t="s">
+        <v>289</v>
+      </c>
+      <c r="F71" t="s">
+        <v>290</v>
+      </c>
+      <c r="G71">
+        <v>262.44</v>
+      </c>
+      <c r="H71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I71">
+        <v>41.99</v>
+      </c>
+      <c r="K71" t="s">
+        <v>30</v>
+      </c>
+      <c r="L71">
+        <v>304.43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72" t="s">
+        <v>291</v>
+      </c>
+      <c r="B72" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" t="s">
+        <v>293</v>
+      </c>
+      <c r="E72" t="s">
+        <v>294</v>
+      </c>
+      <c r="F72" t="s">
+        <v>295</v>
+      </c>
+      <c r="G72">
+        <v>17904.28</v>
+      </c>
+      <c r="H72" t="s">
+        <v>296</v>
+      </c>
+      <c r="I72">
+        <v>2169.55</v>
+      </c>
+      <c r="L72">
+        <v>15729.2706</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73" t="s">
+        <v>297</v>
+      </c>
+      <c r="B73" t="s">
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>298</v>
+      </c>
+      <c r="D73" t="s">
+        <v>299</v>
+      </c>
+      <c r="E73" t="s">
+        <v>300</v>
+      </c>
+      <c r="F73" t="s">
+        <v>301</v>
+      </c>
+      <c r="G73">
+        <v>150</v>
+      </c>
+      <c r="I73">
+        <v>24</v>
+      </c>
+      <c r="L73">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74" t="s">
+        <v>302</v>
+      </c>
+      <c r="B74" t="s">
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>303</v>
+      </c>
+      <c r="D74" t="s">
+        <v>304</v>
+      </c>
+      <c r="E74" t="s">
+        <v>305</v>
+      </c>
+      <c r="F74" t="s">
+        <v>306</v>
+      </c>
+      <c r="G74">
+        <v>10400</v>
+      </c>
+      <c r="I74">
+        <v>1664</v>
+      </c>
+      <c r="L74">
+        <v>12064</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75" t="s">
+        <v>307</v>
+      </c>
+      <c r="B75" t="s">
+        <v>24</v>
+      </c>
+      <c r="C75" t="s">
+        <v>25</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+      <c r="E75" t="s">
+        <v>308</v>
+      </c>
+      <c r="F75" t="s">
+        <v>309</v>
+      </c>
+      <c r="G75">
+        <v>197.44</v>
+      </c>
+      <c r="H75" t="s">
+        <v>29</v>
+      </c>
+      <c r="I75">
+        <v>31.59</v>
+      </c>
+      <c r="K75" t="s">
+        <v>30</v>
+      </c>
+      <c r="L75">
+        <v>229.03</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76" t="s">
+        <v>310</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>25</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E76" t="s">
+        <v>311</v>
+      </c>
+      <c r="F76" t="s">
+        <v>312</v>
+      </c>
+      <c r="G76">
+        <v>304.53</v>
+      </c>
+      <c r="H76" t="s">
+        <v>29</v>
+      </c>
+      <c r="I76">
+        <v>48.72</v>
+      </c>
+      <c r="K76" t="s">
+        <v>30</v>
+      </c>
+      <c r="L76">
+        <v>353.25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77" t="s">
+        <v>313</v>
+      </c>
+      <c r="B77" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s">
+        <v>277</v>
+      </c>
+      <c r="D77" t="s">
+        <v>278</v>
+      </c>
+      <c r="E77" t="s">
+        <v>314</v>
+      </c>
+      <c r="F77" t="s">
+        <v>315</v>
+      </c>
+      <c r="G77">
+        <v>7758.62</v>
+      </c>
+      <c r="I77">
+        <v>1241.38</v>
+      </c>
+      <c r="L77">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>316</v>
+      </c>
+      <c r="B78" t="s">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>32</v>
+      </c>
+      <c r="D78" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" t="s">
+        <v>317</v>
+      </c>
+      <c r="F78" t="s">
+        <v>318</v>
+      </c>
+      <c r="G78">
+        <v>1937.22</v>
+      </c>
+      <c r="I78">
+        <v>299.98</v>
+      </c>
+      <c r="L78">
+        <v>2237.2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
+        <v>319</v>
+      </c>
+      <c r="B79" t="s">
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>173</v>
+      </c>
+      <c r="D79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E79" t="s">
+        <v>320</v>
+      </c>
+      <c r="F79" t="s">
+        <v>321</v>
+      </c>
+      <c r="G79">
+        <v>9437</v>
+      </c>
+      <c r="I79">
+        <v>1509.92</v>
+      </c>
+      <c r="L79">
+        <v>10946.92</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
+        <v>322</v>
+      </c>
+      <c r="B80" t="s">
+        <v>24</v>
+      </c>
+      <c r="C80" t="s">
+        <v>25</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E80" t="s">
+        <v>323</v>
+      </c>
+      <c r="F80" t="s">
+        <v>324</v>
+      </c>
+      <c r="G80">
+        <v>127.97</v>
+      </c>
+      <c r="H80" t="s">
+        <v>29</v>
+      </c>
+      <c r="I80">
+        <v>20.47</v>
+      </c>
+      <c r="K80" t="s">
+        <v>30</v>
+      </c>
+      <c r="L80">
+        <v>148.44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81" t="s">
+        <v>325</v>
+      </c>
+      <c r="B81" t="s">
+        <v>13</v>
+      </c>
+      <c r="C81" t="s">
+        <v>214</v>
+      </c>
+      <c r="D81" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" t="s">
+        <v>326</v>
+      </c>
+      <c r="F81" t="s">
+        <v>327</v>
+      </c>
+      <c r="G81">
+        <v>258.62</v>
+      </c>
+      <c r="H81" t="s">
+        <v>29</v>
+      </c>
+      <c r="I81">
+        <v>41.38</v>
+      </c>
+      <c r="L81">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>328</v>
+      </c>
+      <c r="B82" t="s">
+        <v>13</v>
+      </c>
+      <c r="C82" t="s">
+        <v>203</v>
+      </c>
+      <c r="D82" t="s">
+        <v>204</v>
+      </c>
+      <c r="E82" t="s">
+        <v>329</v>
+      </c>
+      <c r="F82" t="s">
+        <v>330</v>
+      </c>
+      <c r="G82">
+        <v>603.45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>29</v>
+      </c>
+      <c r="I82">
+        <v>96.55</v>
+      </c>
+      <c r="L82">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>331</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83" t="s">
+        <v>277</v>
+      </c>
+      <c r="D83" t="s">
+        <v>278</v>
+      </c>
+      <c r="E83" t="s">
+        <v>332</v>
+      </c>
+      <c r="F83" t="s">
+        <v>333</v>
+      </c>
+      <c r="G83">
+        <v>1850</v>
+      </c>
+      <c r="I83">
+        <v>296</v>
+      </c>
+      <c r="L83">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>334</v>
+      </c>
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="C84" t="s">
+        <v>37</v>
+      </c>
+      <c r="D84" t="s">
+        <v>38</v>
+      </c>
+      <c r="E84" t="s">
+        <v>335</v>
+      </c>
+      <c r="F84" t="s">
+        <v>336</v>
+      </c>
+      <c r="G84">
+        <v>986.61</v>
+      </c>
+      <c r="H84" t="s">
+        <v>29</v>
+      </c>
+      <c r="I84">
+        <v>157.86</v>
+      </c>
+      <c r="L84">
+        <v>1144.47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>337</v>
+      </c>
+      <c r="B85" t="s">
+        <v>13</v>
+      </c>
+      <c r="C85" t="s">
+        <v>203</v>
+      </c>
+      <c r="D85" t="s">
+        <v>204</v>
+      </c>
+      <c r="E85" t="s">
+        <v>338</v>
+      </c>
+      <c r="F85" t="s">
+        <v>339</v>
+      </c>
+      <c r="G85">
+        <v>560.34</v>
+      </c>
+      <c r="H85" t="s">
+        <v>29</v>
+      </c>
+      <c r="I85">
+        <v>89.66</v>
+      </c>
+      <c r="L85">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>340</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86" t="s">
+        <v>341</v>
+      </c>
+      <c r="D86" t="s">
+        <v>342</v>
+      </c>
+      <c r="E86" t="s">
+        <v>343</v>
+      </c>
+      <c r="F86" t="s">
+        <v>344</v>
+      </c>
+      <c r="G86">
+        <v>700</v>
+      </c>
+      <c r="I86">
+        <v>112</v>
+      </c>
+      <c r="L86">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>345</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87" t="s">
+        <v>37</v>
+      </c>
+      <c r="D87" t="s">
+        <v>38</v>
+      </c>
+      <c r="E87" t="s">
+        <v>346</v>
+      </c>
+      <c r="F87" t="s">
+        <v>347</v>
+      </c>
+      <c r="G87">
+        <v>116.51</v>
+      </c>
+      <c r="H87" t="s">
+        <v>29</v>
+      </c>
+      <c r="I87">
+        <v>18.64</v>
+      </c>
+      <c r="L87">
+        <v>135.15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>348</v>
+      </c>
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+      <c r="C88" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" t="s">
+        <v>153</v>
+      </c>
+      <c r="E88" t="s">
+        <v>349</v>
+      </c>
+      <c r="F88" t="s">
+        <v>350</v>
+      </c>
+      <c r="G88">
+        <v>216.78</v>
+      </c>
+      <c r="I88">
+        <v>34.68</v>
+      </c>
+      <c r="J88" t="s">
+        <v>351</v>
+      </c>
+      <c r="L88">
+        <v>245.51</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" t="s">
+        <v>24</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" t="s">
+        <v>353</v>
+      </c>
+      <c r="F89" t="s">
+        <v>354</v>
+      </c>
+      <c r="G89">
+        <v>345.28</v>
+      </c>
+      <c r="H89" t="s">
+        <v>29</v>
+      </c>
+      <c r="I89">
+        <v>55.25</v>
+      </c>
+      <c r="K89" t="s">
+        <v>30</v>
+      </c>
+      <c r="L89">
+        <v>400.53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>355</v>
+      </c>
+      <c r="B90" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" t="s">
+        <v>25</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+      <c r="E90" t="s">
+        <v>356</v>
+      </c>
+      <c r="F90" t="s">
+        <v>357</v>
+      </c>
+      <c r="G90">
+        <v>9186.030000000001</v>
+      </c>
+      <c r="H90" t="s">
+        <v>29</v>
+      </c>
+      <c r="I90">
+        <v>1469.76</v>
+      </c>
+      <c r="K90" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90">
+        <v>10655.79</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>358</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91" t="s">
+        <v>199</v>
+      </c>
+      <c r="E91" t="s">
+        <v>359</v>
+      </c>
+      <c r="F91" t="s">
+        <v>360</v>
+      </c>
+      <c r="G91">
+        <v>80</v>
+      </c>
+      <c r="I91">
+        <v>12.8</v>
+      </c>
+      <c r="L91">
+        <v>92.8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>361</v>
+      </c>
+      <c r="B92" t="s">
+        <v>13</v>
+      </c>
+      <c r="C92" t="s">
+        <v>42</v>
+      </c>
+      <c r="D92" t="s">
+        <v>43</v>
+      </c>
+      <c r="E92" t="s">
+        <v>362</v>
+      </c>
+      <c r="F92" t="s">
+        <v>363</v>
+      </c>
+      <c r="G92">
+        <v>652.53</v>
+      </c>
+      <c r="H92" t="s">
+        <v>364</v>
+      </c>
+      <c r="I92">
+        <v>93.95999999999999</v>
+      </c>
+      <c r="L92">
+        <v>681.24</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>365</v>
+      </c>
+      <c r="B93" t="s">
+        <v>24</v>
+      </c>
+      <c r="C93" t="s">
+        <v>366</v>
+      </c>
+      <c r="D93" t="s">
+        <v>367</v>
+      </c>
+      <c r="E93" t="s">
+        <v>368</v>
+      </c>
+      <c r="F93" t="s">
+        <v>369</v>
+      </c>
+      <c r="G93">
+        <v>181.78</v>
+      </c>
+      <c r="H93" t="s">
+        <v>29</v>
+      </c>
+      <c r="I93">
+        <v>29.08</v>
+      </c>
+      <c r="L93">
+        <v>210.86</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>370</v>
+      </c>
+      <c r="B94" t="s">
+        <v>13</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" t="s">
+        <v>371</v>
+      </c>
+      <c r="F94" t="s">
+        <v>372</v>
+      </c>
+      <c r="G94">
+        <v>1644.84</v>
+      </c>
+      <c r="I94">
+        <v>254.96</v>
+      </c>
+      <c r="L94">
+        <v>1899.8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>373</v>
+      </c>
+      <c r="B95" t="s">
+        <v>13</v>
+      </c>
+      <c r="C95" t="s">
+        <v>214</v>
+      </c>
+      <c r="D95" t="s">
+        <v>215</v>
+      </c>
+      <c r="E95" t="s">
+        <v>374</v>
+      </c>
+      <c r="F95" t="s">
+        <v>375</v>
+      </c>
+      <c r="G95">
+        <v>172.41</v>
+      </c>
+      <c r="H95" t="s">
+        <v>29</v>
+      </c>
+      <c r="I95">
+        <v>27.59</v>
+      </c>
+      <c r="L95">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96" t="s">
+        <v>376</v>
+      </c>
+      <c r="B96" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" t="s">
+        <v>341</v>
+      </c>
+      <c r="D96" t="s">
+        <v>342</v>
+      </c>
+      <c r="E96" t="s">
+        <v>377</v>
+      </c>
+      <c r="F96" t="s">
+        <v>378</v>
+      </c>
+      <c r="G96">
+        <v>1800</v>
+      </c>
+      <c r="I96">
+        <v>288</v>
+      </c>
+      <c r="L96">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97" t="s">
+        <v>379</v>
+      </c>
+      <c r="B97" t="s">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E97" t="s">
+        <v>380</v>
+      </c>
+      <c r="F97" t="s">
+        <v>381</v>
+      </c>
+      <c r="G97">
+        <v>1165</v>
+      </c>
+      <c r="I97">
+        <v>186.4</v>
+      </c>
+      <c r="L97">
+        <v>1351.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98" t="s">
+        <v>382</v>
+      </c>
+      <c r="B98" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98" t="s">
+        <v>383</v>
+      </c>
+      <c r="D98" t="s">
+        <v>384</v>
+      </c>
+      <c r="E98" t="s">
+        <v>385</v>
+      </c>
+      <c r="F98" t="s">
+        <v>386</v>
+      </c>
+      <c r="G98">
+        <v>152.5</v>
+      </c>
+      <c r="L98">
+        <v>152.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99" t="s">
+        <v>387</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>114</v>
+      </c>
+      <c r="D99" t="s">
+        <v>115</v>
+      </c>
+      <c r="E99" t="s">
+        <v>388</v>
+      </c>
+      <c r="F99" t="s">
+        <v>389</v>
+      </c>
+      <c r="K99" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100" t="s">
+        <v>390</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>292</v>
+      </c>
+      <c r="D100" t="s">
+        <v>293</v>
+      </c>
+      <c r="E100" t="s">
+        <v>391</v>
+      </c>
+      <c r="F100" t="s">
+        <v>392</v>
+      </c>
+      <c r="G100">
+        <v>4680.46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>393</v>
+      </c>
+      <c r="I100">
+        <v>520.47</v>
+      </c>
+      <c r="L100">
+        <v>3773.39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101" t="s">
+        <v>394</v>
+      </c>
+      <c r="B101" t="s">
+        <v>13</v>
+      </c>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" t="s">
+        <v>26</v>
+      </c>
+      <c r="E101" t="s">
+        <v>395</v>
+      </c>
+      <c r="F101" t="s">
+        <v>396</v>
+      </c>
+      <c r="G101">
+        <v>201.49</v>
+      </c>
+      <c r="H101" t="s">
+        <v>29</v>
+      </c>
+      <c r="I101">
+        <v>32.24</v>
+      </c>
+      <c r="K101" t="s">
+        <v>30</v>
+      </c>
+      <c r="L101">
+        <v>233.73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102" t="s">
+        <v>397</v>
+      </c>
+      <c r="B102" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" t="s">
+        <v>25</v>
+      </c>
+      <c r="D102" t="s">
+        <v>26</v>
+      </c>
+      <c r="E102" t="s">
+        <v>398</v>
+      </c>
+      <c r="F102" t="s">
+        <v>399</v>
+      </c>
+      <c r="G102">
+        <v>1967.05</v>
+      </c>
+      <c r="H102" t="s">
+        <v>29</v>
+      </c>
+      <c r="I102">
+        <v>314.73</v>
+      </c>
+      <c r="K102" t="s">
+        <v>30</v>
+      </c>
+      <c r="L102">
+        <v>2281.78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103" t="s">
+        <v>400</v>
+      </c>
+      <c r="B103" t="s">
+        <v>13</v>
+      </c>
+      <c r="C103" t="s">
+        <v>181</v>
+      </c>
+      <c r="D103" t="s">
+        <v>182</v>
+      </c>
+      <c r="E103" t="s">
+        <v>401</v>
+      </c>
+      <c r="F103" t="s">
+        <v>402</v>
+      </c>
+      <c r="G103">
+        <v>1271.55</v>
+      </c>
+      <c r="I103">
+        <v>203.45</v>
+      </c>
+      <c r="L103">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104" t="s">
+        <v>403</v>
+      </c>
+      <c r="B104" t="s">
+        <v>13</v>
+      </c>
+      <c r="C104" t="s">
+        <v>341</v>
+      </c>
+      <c r="D104" t="s">
+        <v>342</v>
+      </c>
+      <c r="E104" t="s">
+        <v>404</v>
+      </c>
+      <c r="F104" t="s">
+        <v>405</v>
+      </c>
+      <c r="G104">
+        <v>1800</v>
+      </c>
+      <c r="I104">
+        <v>288</v>
+      </c>
+      <c r="L104">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105" t="s">
+        <v>406</v>
+      </c>
+      <c r="B105" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105" t="s">
+        <v>106</v>
+      </c>
+      <c r="D105" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" t="s">
+        <v>407</v>
+      </c>
+      <c r="F105" t="s">
+        <v>408</v>
+      </c>
+      <c r="G105">
+        <v>880.374497</v>
+      </c>
+      <c r="I105">
+        <v>140.859919</v>
+      </c>
+      <c r="L105">
+        <v>1021.234416</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106" t="s">
+        <v>409</v>
+      </c>
+      <c r="B106" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" t="s">
+        <v>25</v>
+      </c>
+      <c r="D106" t="s">
+        <v>26</v>
+      </c>
+      <c r="E106" t="s">
+        <v>410</v>
+      </c>
+      <c r="F106" t="s">
+        <v>411</v>
+      </c>
+      <c r="G106">
+        <v>823.72</v>
+      </c>
+      <c r="H106" t="s">
+        <v>29</v>
+      </c>
+      <c r="I106">
+        <v>131.8</v>
+      </c>
+      <c r="K106" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106">
+        <v>955.52</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107" t="s">
+        <v>412</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107" t="s">
+        <v>65</v>
+      </c>
+      <c r="D107" t="s">
+        <v>66</v>
+      </c>
+      <c r="E107" t="s">
+        <v>413</v>
+      </c>
+      <c r="F107" t="s">
+        <v>414</v>
+      </c>
+      <c r="G107">
+        <v>1392.48</v>
+      </c>
+      <c r="I107">
+        <v>222.8</v>
+      </c>
+      <c r="J107" t="s">
+        <v>29</v>
+      </c>
+      <c r="L107">
+        <v>1615.28</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108" t="s">
+        <v>415</v>
+      </c>
+      <c r="B108" t="s">
+        <v>24</v>
+      </c>
+      <c r="C108" t="s">
+        <v>37</v>
+      </c>
+      <c r="D108" t="s">
+        <v>38</v>
+      </c>
+      <c r="E108" t="s">
+        <v>416</v>
+      </c>
+      <c r="F108" t="s">
+        <v>417</v>
+      </c>
+      <c r="G108">
+        <v>1174.55</v>
+      </c>
+      <c r="H108" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108">
+        <v>187.93</v>
+      </c>
+      <c r="L108">
+        <v>1362.48</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109" t="s">
+        <v>418</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>419</v>
+      </c>
+      <c r="D109" t="s">
+        <v>420</v>
+      </c>
+      <c r="E109" t="s">
+        <v>421</v>
+      </c>
+      <c r="F109" t="s">
+        <v>422</v>
+      </c>
+      <c r="G109">
+        <v>15354.24</v>
+      </c>
+      <c r="I109">
+        <v>2456.68</v>
+      </c>
+      <c r="L109">
+        <v>17810.92</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110" t="s">
+        <v>423</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>424</v>
+      </c>
+      <c r="D110" t="s">
+        <v>425</v>
+      </c>
+      <c r="E110" t="s">
+        <v>426</v>
+      </c>
+      <c r="F110" t="s">
+        <v>427</v>
+      </c>
+      <c r="G110">
+        <v>106.47</v>
+      </c>
+      <c r="I110">
+        <v>17.04</v>
+      </c>
+      <c r="L110">
+        <v>123.51</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111" t="s">
+        <v>428</v>
+      </c>
+      <c r="B111" t="s">
+        <v>24</v>
+      </c>
+      <c r="C111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" t="s">
+        <v>429</v>
+      </c>
+      <c r="F111" t="s">
+        <v>430</v>
+      </c>
+      <c r="G111">
+        <v>986.61</v>
+      </c>
+      <c r="H111" t="s">
+        <v>29</v>
+      </c>
+      <c r="I111">
+        <v>157.86</v>
+      </c>
+      <c r="L111">
+        <v>1144.47</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112" t="s">
+        <v>431</v>
+      </c>
+      <c r="B112" t="s">
+        <v>24</v>
+      </c>
+      <c r="C112" t="s">
+        <v>37</v>
+      </c>
+      <c r="D112" t="s">
+        <v>38</v>
+      </c>
+      <c r="E112" t="s">
+        <v>432</v>
+      </c>
+      <c r="F112" t="s">
+        <v>433</v>
+      </c>
+      <c r="G112">
+        <v>986.61</v>
+      </c>
+      <c r="H112" t="s">
+        <v>29</v>
+      </c>
+      <c r="I112">
+        <v>157.86</v>
+      </c>
+      <c r="L112">
+        <v>1144.47</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113" t="s">
+        <v>434</v>
+      </c>
+      <c r="B113" t="s">
+        <v>24</v>
+      </c>
+      <c r="C113" t="s">
+        <v>37</v>
+      </c>
+      <c r="D113" t="s">
+        <v>38</v>
+      </c>
+      <c r="E113" t="s">
+        <v>435</v>
+      </c>
+      <c r="F113" t="s">
+        <v>436</v>
+      </c>
+      <c r="G113">
+        <v>151.62</v>
+      </c>
+      <c r="H113" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113">
+        <v>24.26</v>
+      </c>
+      <c r="L113">
+        <v>175.88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114" t="s">
+        <v>437</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>438</v>
+      </c>
+      <c r="D114" t="s">
+        <v>439</v>
+      </c>
+      <c r="E114" t="s">
+        <v>440</v>
+      </c>
+      <c r="G114">
+        <v>1976.14</v>
+      </c>
+      <c r="L114">
+        <v>1976.14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115" t="s">
+        <v>441</v>
+      </c>
+      <c r="B115" t="s">
+        <v>24</v>
+      </c>
+      <c r="C115" t="s">
+        <v>37</v>
+      </c>
+      <c r="D115" t="s">
+        <v>38</v>
+      </c>
+      <c r="E115" t="s">
+        <v>442</v>
+      </c>
+      <c r="F115" t="s">
+        <v>443</v>
+      </c>
+      <c r="G115">
+        <v>116.88</v>
+      </c>
+      <c r="H115" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115">
+        <v>18.7</v>
+      </c>
+      <c r="L115">
+        <v>135.58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116" t="s">
+        <v>444</v>
+      </c>
+      <c r="B116" t="s">
+        <v>24</v>
+      </c>
+      <c r="C116" t="s">
+        <v>25</v>
+      </c>
+      <c r="D116" t="s">
+        <v>26</v>
+      </c>
+      <c r="E116" t="s">
+        <v>445</v>
+      </c>
+      <c r="F116" t="s">
+        <v>446</v>
+      </c>
+      <c r="G116">
+        <v>1214.36</v>
+      </c>
+      <c r="H116" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116">
+        <v>194.3</v>
+      </c>
+      <c r="K116" t="s">
+        <v>30</v>
+      </c>
+      <c r="L116">
+        <v>1408.66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117" t="s">
+        <v>447</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>231</v>
+      </c>
+      <c r="D117" t="s">
+        <v>232</v>
+      </c>
+      <c r="E117" t="s">
+        <v>448</v>
+      </c>
+      <c r="F117" t="s">
+        <v>449</v>
+      </c>
+      <c r="G117">
+        <v>5248.5</v>
+      </c>
+      <c r="H117" t="s">
+        <v>450</v>
+      </c>
+      <c r="I117">
+        <v>440.37</v>
+      </c>
+      <c r="L117">
+        <v>3192.68</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118" t="s">
+        <v>451</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118" t="s">
+        <v>20</v>
+      </c>
+      <c r="E118" t="s">
+        <v>452</v>
+      </c>
+      <c r="F118" t="s">
+        <v>453</v>
+      </c>
+      <c r="G118">
+        <v>3140</v>
+      </c>
+      <c r="I118">
+        <v>502.4</v>
+      </c>
+      <c r="L118">
+        <v>3642.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119" t="s">
+        <v>454</v>
+      </c>
+      <c r="B119" t="s">
+        <v>24</v>
+      </c>
+      <c r="C119" t="s">
+        <v>37</v>
+      </c>
+      <c r="D119" t="s">
+        <v>38</v>
+      </c>
+      <c r="E119" t="s">
+        <v>455</v>
+      </c>
+      <c r="F119" t="s">
+        <v>456</v>
+      </c>
+      <c r="G119">
+        <v>22.69</v>
+      </c>
+      <c r="H119" t="s">
+        <v>29</v>
+      </c>
+      <c r="I119">
+        <v>3.63</v>
+      </c>
+      <c r="L119">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120" t="s">
+        <v>457</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>89</v>
+      </c>
+      <c r="D120" t="s">
+        <v>458</v>
+      </c>
+      <c r="E120" t="s">
+        <v>459</v>
+      </c>
+      <c r="F120" t="s">
+        <v>460</v>
+      </c>
+      <c r="G120">
+        <v>1012.58</v>
+      </c>
+      <c r="H120" t="s">
+        <v>29</v>
+      </c>
+      <c r="I120">
+        <v>162.01</v>
+      </c>
+      <c r="K120" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120">
+        <v>1174.59</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121" t="s">
+        <v>461</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>73</v>
+      </c>
+      <c r="D121" t="s">
+        <v>74</v>
+      </c>
+      <c r="E121" t="s">
+        <v>462</v>
+      </c>
+      <c r="F121" t="s">
+        <v>463</v>
+      </c>
+      <c r="G121">
+        <v>1677.75</v>
+      </c>
+      <c r="I121">
+        <v>268.44</v>
+      </c>
+      <c r="L121">
+        <v>1946.19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122" t="s">
+        <v>464</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>152</v>
+      </c>
+      <c r="D122" t="s">
+        <v>153</v>
+      </c>
+      <c r="E122" t="s">
+        <v>465</v>
+      </c>
+      <c r="F122" t="s">
+        <v>466</v>
+      </c>
+      <c r="G122">
+        <v>59.74</v>
+      </c>
+      <c r="I122">
+        <v>9.56</v>
+      </c>
+      <c r="J122" t="s">
+        <v>467</v>
+      </c>
+      <c r="L122">
+        <v>67.23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123" t="s">
+        <v>468</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>65</v>
+      </c>
+      <c r="D123" t="s">
+        <v>66</v>
+      </c>
+      <c r="E123" t="s">
+        <v>469</v>
+      </c>
+      <c r="F123" t="s">
+        <v>470</v>
+      </c>
+      <c r="G123">
+        <v>5695.9</v>
+      </c>
+      <c r="I123">
+        <v>911.34</v>
+      </c>
+      <c r="J123" t="s">
+        <v>29</v>
+      </c>
+      <c r="L123">
+        <v>6607.24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124" t="s">
+        <v>471</v>
+      </c>
+      <c r="B124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" t="s">
+        <v>25</v>
+      </c>
+      <c r="D124" t="s">
+        <v>26</v>
+      </c>
+      <c r="E124" t="s">
+        <v>472</v>
+      </c>
+      <c r="F124" t="s">
+        <v>473</v>
+      </c>
+      <c r="G124">
+        <v>1264.63</v>
+      </c>
+      <c r="H124" t="s">
+        <v>29</v>
+      </c>
+      <c r="I124">
+        <v>202.34</v>
+      </c>
+      <c r="K124" t="s">
+        <v>30</v>
+      </c>
+      <c r="L124">
+        <v>1466.97</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125" t="s">
+        <v>474</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" t="s">
+        <v>26</v>
+      </c>
+      <c r="E125" t="s">
+        <v>475</v>
+      </c>
+      <c r="F125" t="s">
+        <v>476</v>
+      </c>
+      <c r="G125">
+        <v>194.4</v>
+      </c>
+      <c r="H125" t="s">
+        <v>29</v>
+      </c>
+      <c r="I125">
+        <v>31.1</v>
+      </c>
+      <c r="K125" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125">
+        <v>225.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126" t="s">
+        <v>477</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>198</v>
+      </c>
+      <c r="D126" t="s">
+        <v>199</v>
+      </c>
+      <c r="E126" t="s">
+        <v>478</v>
+      </c>
+      <c r="F126" t="s">
+        <v>479</v>
+      </c>
+      <c r="G126">
+        <v>160</v>
+      </c>
+      <c r="I126">
+        <v>25.6</v>
+      </c>
+      <c r="L126">
+        <v>185.6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127" t="s">
+        <v>480</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>481</v>
+      </c>
+      <c r="D127" t="s">
+        <v>482</v>
+      </c>
+      <c r="E127" t="s">
+        <v>483</v>
+      </c>
+      <c r="F127" t="s">
+        <v>484</v>
+      </c>
+      <c r="G127">
+        <v>4008.43</v>
+      </c>
+      <c r="I127">
+        <v>641.35</v>
+      </c>
+      <c r="L127">
+        <v>4649.78</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128" t="s">
+        <v>485</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>25</v>
+      </c>
+      <c r="D128" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" t="s">
         <v>486</v>
       </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3">
-        <v>2900</v>
+      <c r="F128" t="s">
+        <v>487</v>
+      </c>
+      <c r="G128">
+        <v>2071.97</v>
+      </c>
+      <c r="H128" t="s">
+        <v>29</v>
+      </c>
+      <c r="I128">
+        <v>331.52</v>
+      </c>
+      <c r="K128" t="s">
+        <v>30</v>
+      </c>
+      <c r="L128">
+        <v>2403.49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129" t="s">
+        <v>488</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>214</v>
+      </c>
+      <c r="D129" t="s">
+        <v>215</v>
+      </c>
+      <c r="E129" t="s">
+        <v>489</v>
+      </c>
+      <c r="F129" t="s">
+        <v>490</v>
+      </c>
+      <c r="G129">
+        <v>344.83</v>
+      </c>
+      <c r="H129" t="s">
+        <v>29</v>
+      </c>
+      <c r="I129">
+        <v>55.17</v>
+      </c>
+      <c r="L129">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130" t="s">
+        <v>491</v>
+      </c>
+      <c r="B130" t="s">
+        <v>24</v>
+      </c>
+      <c r="C130" t="s">
+        <v>37</v>
+      </c>
+      <c r="D130" t="s">
+        <v>38</v>
+      </c>
+      <c r="E130" t="s">
+        <v>492</v>
+      </c>
+      <c r="F130" t="s">
+        <v>493</v>
+      </c>
+      <c r="G130">
+        <v>272.95</v>
+      </c>
+      <c r="H130" t="s">
+        <v>29</v>
+      </c>
+      <c r="I130">
+        <v>43.67</v>
+      </c>
+      <c r="L130">
+        <v>316.62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131" t="s">
+        <v>494</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>25</v>
+      </c>
+      <c r="D131" t="s">
+        <v>26</v>
+      </c>
+      <c r="E131" t="s">
+        <v>495</v>
+      </c>
+      <c r="F131" t="s">
+        <v>496</v>
+      </c>
+      <c r="G131">
+        <v>3045.28</v>
+      </c>
+      <c r="H131" t="s">
+        <v>29</v>
+      </c>
+      <c r="I131">
+        <v>487.24</v>
+      </c>
+      <c r="K131" t="s">
+        <v>30</v>
+      </c>
+      <c r="L131">
+        <v>3532.52</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132" t="s">
+        <v>497</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>25</v>
+      </c>
+      <c r="D132" t="s">
+        <v>26</v>
+      </c>
+      <c r="E132" t="s">
+        <v>498</v>
+      </c>
+      <c r="F132" t="s">
+        <v>499</v>
+      </c>
+      <c r="G132">
+        <v>1879.16</v>
+      </c>
+      <c r="H132" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132">
+        <v>300.66</v>
+      </c>
+      <c r="K132" t="s">
+        <v>30</v>
+      </c>
+      <c r="L132">
+        <v>2179.82</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133" t="s">
+        <v>500</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>203</v>
+      </c>
+      <c r="D133" t="s">
+        <v>204</v>
+      </c>
+      <c r="E133" t="s">
+        <v>501</v>
+      </c>
+      <c r="F133" t="s">
+        <v>502</v>
+      </c>
+      <c r="G133">
+        <v>560.34</v>
+      </c>
+      <c r="H133" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133">
+        <v>89.66</v>
+      </c>
+      <c r="L133">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134" t="s">
+        <v>503</v>
+      </c>
+      <c r="B134" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" t="s">
+        <v>37</v>
+      </c>
+      <c r="D134" t="s">
+        <v>38</v>
+      </c>
+      <c r="E134" t="s">
+        <v>504</v>
+      </c>
+      <c r="F134" t="s">
+        <v>505</v>
+      </c>
+      <c r="G134">
+        <v>986.61</v>
+      </c>
+      <c r="H134" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134">
+        <v>157.86</v>
+      </c>
+      <c r="L134">
+        <v>1144.47</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135" t="s">
+        <v>506</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>507</v>
+      </c>
+      <c r="D135" t="s">
+        <v>508</v>
+      </c>
+      <c r="E135" t="s">
+        <v>509</v>
+      </c>
+      <c r="F135" t="s">
+        <v>510</v>
+      </c>
+      <c r="G135">
+        <v>1414.08</v>
+      </c>
+      <c r="I135">
+        <v>226.2528</v>
+      </c>
+      <c r="L135">
+        <v>1640.3328</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136" t="s">
+        <v>265</v>
+      </c>
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="C136" t="s">
+        <v>25</v>
+      </c>
+      <c r="D136" t="s">
+        <v>26</v>
+      </c>
+      <c r="E136" t="s">
+        <v>511</v>
+      </c>
+      <c r="F136" t="s">
+        <v>512</v>
+      </c>
+      <c r="G136">
+        <v>87.08</v>
+      </c>
+      <c r="H136" t="s">
+        <v>29</v>
+      </c>
+      <c r="I136">
+        <v>13.93</v>
+      </c>
+      <c r="K136" t="s">
+        <v>30</v>
+      </c>
+      <c r="L136">
+        <v>101.01</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137" t="s">
+        <v>513</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>106</v>
+      </c>
+      <c r="D137" t="s">
+        <v>107</v>
+      </c>
+      <c r="E137" t="s">
+        <v>514</v>
+      </c>
+      <c r="F137" t="s">
+        <v>515</v>
+      </c>
+      <c r="G137">
+        <v>1752.598</v>
+      </c>
+      <c r="I137">
+        <v>280.415679</v>
+      </c>
+      <c r="L137">
+        <v>2033.013679</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138" t="s">
+        <v>516</v>
+      </c>
+      <c r="B138" t="s">
+        <v>24</v>
+      </c>
+      <c r="C138" t="s">
+        <v>366</v>
+      </c>
+      <c r="D138" t="s">
+        <v>367</v>
+      </c>
+      <c r="E138" t="s">
+        <v>517</v>
+      </c>
+      <c r="F138" t="s">
+        <v>518</v>
+      </c>
+      <c r="G138">
+        <v>34.63</v>
+      </c>
+      <c r="H138" t="s">
+        <v>29</v>
+      </c>
+      <c r="I138">
+        <v>5.54</v>
+      </c>
+      <c r="L138">
+        <v>40.17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139" t="s">
+        <v>519</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>25</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+      <c r="E139" t="s">
+        <v>520</v>
+      </c>
+      <c r="F139" t="s">
+        <v>521</v>
+      </c>
+      <c r="G139">
+        <v>1726.42</v>
+      </c>
+      <c r="H139" t="s">
+        <v>29</v>
+      </c>
+      <c r="I139">
+        <v>276.23</v>
+      </c>
+      <c r="K139" t="s">
+        <v>30</v>
+      </c>
+      <c r="L139">
+        <v>2002.65</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140" t="s">
+        <v>522</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>25</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+      <c r="E140" t="s">
+        <v>523</v>
+      </c>
+      <c r="F140" t="s">
+        <v>524</v>
+      </c>
+      <c r="G140">
+        <v>4746.18</v>
+      </c>
+      <c r="H140" t="s">
+        <v>29</v>
+      </c>
+      <c r="I140">
+        <v>759.39</v>
+      </c>
+      <c r="K140" t="s">
+        <v>30</v>
+      </c>
+      <c r="L140">
+        <v>5505.57</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141" t="s">
+        <v>525</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>277</v>
+      </c>
+      <c r="D141" t="s">
+        <v>278</v>
+      </c>
+      <c r="E141" t="s">
+        <v>526</v>
+      </c>
+      <c r="F141" t="s">
+        <v>527</v>
+      </c>
+      <c r="G141">
+        <v>950</v>
+      </c>
+      <c r="I141">
+        <v>152</v>
+      </c>
+      <c r="L141">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142" t="s">
+        <v>528</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>529</v>
+      </c>
+      <c r="D142" t="s">
+        <v>530</v>
+      </c>
+      <c r="E142" t="s">
+        <v>531</v>
+      </c>
+      <c r="F142" t="s">
+        <v>532</v>
+      </c>
+      <c r="G142">
+        <v>396.55</v>
+      </c>
+      <c r="H142" t="s">
+        <v>29</v>
+      </c>
+      <c r="I142">
+        <v>63.45</v>
+      </c>
+      <c r="L142">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143" t="s">
+        <v>533</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143" t="s">
+        <v>66</v>
+      </c>
+      <c r="E143" t="s">
+        <v>534</v>
+      </c>
+      <c r="F143" t="s">
+        <v>535</v>
+      </c>
+      <c r="G143">
+        <v>1517.33</v>
+      </c>
+      <c r="I143">
+        <v>242.77</v>
+      </c>
+      <c r="J143" t="s">
+        <v>29</v>
+      </c>
+      <c r="L143">
+        <v>1760.1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144" t="s">
+        <v>536</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>537</v>
+      </c>
+      <c r="D144" t="s">
+        <v>538</v>
+      </c>
+      <c r="E144" t="s">
+        <v>539</v>
+      </c>
+      <c r="F144" t="s">
+        <v>540</v>
+      </c>
+      <c r="G144">
+        <v>9576</v>
+      </c>
+      <c r="H144" t="s">
+        <v>29</v>
+      </c>
+      <c r="I144">
+        <v>1532.16</v>
+      </c>
+      <c r="L144">
+        <v>11108.16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" t="s">
+        <v>541</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" t="s">
+        <v>20</v>
+      </c>
+      <c r="E145" t="s">
+        <v>542</v>
+      </c>
+      <c r="F145" t="s">
+        <v>543</v>
+      </c>
+      <c r="G145">
+        <v>3438</v>
+      </c>
+      <c r="I145">
+        <v>550.08</v>
+      </c>
+      <c r="L145">
+        <v>3988.08</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" t="s">
+        <v>544</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>481</v>
+      </c>
+      <c r="D146" t="s">
+        <v>482</v>
+      </c>
+      <c r="E146" t="s">
+        <v>545</v>
+      </c>
+      <c r="F146" t="s">
+        <v>546</v>
+      </c>
+      <c r="G146">
+        <v>2750.98</v>
+      </c>
+      <c r="I146">
+        <v>440.16</v>
+      </c>
+      <c r="L146">
+        <v>3191.14</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" t="s">
+        <v>547</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>100</v>
+      </c>
+      <c r="D147" t="s">
+        <v>101</v>
+      </c>
+      <c r="E147" t="s">
+        <v>548</v>
+      </c>
+      <c r="F147" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" t="s">
+        <v>550</v>
+      </c>
+      <c r="B148" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" t="s">
+        <v>26</v>
+      </c>
+      <c r="E148" t="s">
+        <v>551</v>
+      </c>
+      <c r="F148" t="s">
+        <v>552</v>
+      </c>
+      <c r="G148">
+        <v>1465.5</v>
+      </c>
+      <c r="H148" t="s">
+        <v>29</v>
+      </c>
+      <c r="I148">
+        <v>234.48</v>
+      </c>
+      <c r="K148" t="s">
+        <v>30</v>
+      </c>
+      <c r="L148">
+        <v>1699.98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" t="s">
+        <v>553</v>
+      </c>
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+      <c r="C149" t="s">
+        <v>37</v>
+      </c>
+      <c r="D149" t="s">
+        <v>38</v>
+      </c>
+      <c r="E149" t="s">
+        <v>554</v>
+      </c>
+      <c r="F149" t="s">
+        <v>555</v>
+      </c>
+      <c r="G149">
+        <v>253.15</v>
+      </c>
+      <c r="H149" t="s">
+        <v>29</v>
+      </c>
+      <c r="I149">
+        <v>40.5</v>
+      </c>
+      <c r="L149">
+        <v>293.65</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" t="s">
+        <v>556</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>73</v>
+      </c>
+      <c r="D150" t="s">
+        <v>74</v>
+      </c>
+      <c r="E150" t="s">
+        <v>557</v>
+      </c>
+      <c r="F150" t="s">
+        <v>558</v>
+      </c>
+      <c r="G150">
+        <v>468.5</v>
+      </c>
+      <c r="I150">
+        <v>74.95999999999999</v>
+      </c>
+      <c r="L150">
+        <v>543.46</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" t="s">
+        <v>559</v>
+      </c>
+      <c r="B151" t="s">
+        <v>24</v>
+      </c>
+      <c r="C151" t="s">
+        <v>25</v>
+      </c>
+      <c r="D151" t="s">
+        <v>26</v>
+      </c>
+      <c r="E151" t="s">
+        <v>560</v>
+      </c>
+      <c r="F151" t="s">
+        <v>561</v>
+      </c>
+      <c r="G151">
+        <v>1617.93</v>
+      </c>
+      <c r="H151" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151">
+        <v>258.87</v>
+      </c>
+      <c r="K151" t="s">
+        <v>30</v>
+      </c>
+      <c r="L151">
+        <v>1876.8</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" t="s">
+        <v>562</v>
+      </c>
+      <c r="B152" t="s">
+        <v>24</v>
+      </c>
+      <c r="C152" t="s">
+        <v>25</v>
+      </c>
+      <c r="D152" t="s">
+        <v>26</v>
+      </c>
+      <c r="E152" t="s">
+        <v>563</v>
+      </c>
+      <c r="F152" t="s">
+        <v>564</v>
+      </c>
+      <c r="G152">
+        <v>164.74</v>
+      </c>
+      <c r="H152" t="s">
+        <v>29</v>
+      </c>
+      <c r="I152">
+        <v>26.36</v>
+      </c>
+      <c r="K152" t="s">
+        <v>30</v>
+      </c>
+      <c r="L152">
+        <v>191.1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" t="s">
+        <v>565</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>37</v>
+      </c>
+      <c r="D153" t="s">
+        <v>38</v>
+      </c>
+      <c r="E153" t="s">
+        <v>566</v>
+      </c>
+      <c r="F153" t="s">
+        <v>567</v>
+      </c>
+      <c r="G153">
+        <v>1432.84</v>
+      </c>
+      <c r="H153" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153">
+        <v>229.2544</v>
+      </c>
+      <c r="L153">
+        <v>1662.09</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" t="s">
+        <v>568</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>569</v>
+      </c>
+      <c r="D154" t="s">
+        <v>570</v>
+      </c>
+      <c r="E154" t="s">
+        <v>571</v>
+      </c>
+      <c r="F154" t="s">
+        <v>327</v>
+      </c>
+      <c r="G154">
+        <v>473.2759</v>
+      </c>
+      <c r="H154" t="s">
+        <v>30</v>
+      </c>
+      <c r="I154">
+        <v>75.72</v>
+      </c>
+      <c r="L154">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" t="s">
+        <v>572</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>573</v>
+      </c>
+      <c r="D155" t="s">
+        <v>574</v>
+      </c>
+      <c r="E155" t="s">
+        <v>575</v>
+      </c>
+      <c r="F155" t="s">
+        <v>576</v>
+      </c>
+      <c r="G155">
+        <v>10629</v>
+      </c>
+      <c r="I155">
+        <v>1700.64</v>
+      </c>
+      <c r="L155">
+        <v>12329.64</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" t="s">
+        <v>577</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>277</v>
+      </c>
+      <c r="D156" t="s">
+        <v>278</v>
+      </c>
+      <c r="E156" t="s">
+        <v>578</v>
+      </c>
+      <c r="F156" t="s">
+        <v>579</v>
+      </c>
+      <c r="G156">
+        <v>950</v>
+      </c>
+      <c r="I156">
+        <v>152</v>
+      </c>
+      <c r="L156">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" t="s">
+        <v>580</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" t="s">
+        <v>43</v>
+      </c>
+      <c r="E157" t="s">
+        <v>581</v>
+      </c>
+      <c r="F157" t="s">
+        <v>582</v>
+      </c>
+      <c r="G157">
+        <v>967.8</v>
+      </c>
+      <c r="H157" t="s">
+        <v>583</v>
+      </c>
+      <c r="I157">
+        <v>139.36</v>
+      </c>
+      <c r="L157">
+        <v>1010.38</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" t="s">
+        <v>584</v>
+      </c>
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+      <c r="C158" t="s">
+        <v>25</v>
+      </c>
+      <c r="D158" t="s">
+        <v>26</v>
+      </c>
+      <c r="E158" t="s">
+        <v>585</v>
+      </c>
+      <c r="F158" t="s">
+        <v>586</v>
+      </c>
+      <c r="G158">
+        <v>484.84</v>
+      </c>
+      <c r="H158" t="s">
+        <v>29</v>
+      </c>
+      <c r="I158">
+        <v>77.58</v>
+      </c>
+      <c r="K158" t="s">
+        <v>30</v>
+      </c>
+      <c r="L158">
+        <v>562.42</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" t="s">
+        <v>587</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>341</v>
+      </c>
+      <c r="D159" t="s">
+        <v>342</v>
+      </c>
+      <c r="E159" t="s">
+        <v>588</v>
+      </c>
+      <c r="F159" t="s">
+        <v>589</v>
+      </c>
+      <c r="G159">
+        <v>1800</v>
+      </c>
+      <c r="I159">
+        <v>288</v>
+      </c>
+      <c r="L159">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" t="s">
+        <v>590</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>25</v>
+      </c>
+      <c r="D160" t="s">
+        <v>26</v>
+      </c>
+      <c r="E160" t="s">
+        <v>591</v>
+      </c>
+      <c r="F160" t="s">
+        <v>592</v>
+      </c>
+      <c r="G160">
+        <v>597.23</v>
+      </c>
+      <c r="H160" t="s">
+        <v>29</v>
+      </c>
+      <c r="I160">
+        <v>95.56</v>
+      </c>
+      <c r="K160" t="s">
+        <v>30</v>
+      </c>
+      <c r="L160">
+        <v>692.79</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" t="s">
+        <v>593</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161" t="s">
+        <v>152</v>
+      </c>
+      <c r="D161" t="s">
+        <v>153</v>
+      </c>
+      <c r="E161" t="s">
+        <v>594</v>
+      </c>
+      <c r="F161" t="s">
+        <v>595</v>
+      </c>
+      <c r="G161">
+        <v>570.73</v>
+      </c>
+      <c r="I161">
+        <v>91.31999999999999</v>
+      </c>
+      <c r="J161" t="s">
+        <v>596</v>
+      </c>
+      <c r="L161">
+        <v>646.23</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" t="s">
+        <v>597</v>
+      </c>
+      <c r="B162" t="s">
+        <v>13</v>
+      </c>
+      <c r="C162" t="s">
+        <v>598</v>
+      </c>
+      <c r="D162" t="s">
+        <v>599</v>
+      </c>
+      <c r="E162" t="s">
+        <v>600</v>
+      </c>
+      <c r="F162" t="s">
+        <v>601</v>
+      </c>
+      <c r="G162">
+        <v>620.78</v>
+      </c>
+      <c r="H162" t="s">
+        <v>30</v>
+      </c>
+      <c r="I162">
+        <v>99.22</v>
+      </c>
+      <c r="L162">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" t="s">
+        <v>602</v>
+      </c>
+      <c r="B163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" t="s">
+        <v>366</v>
+      </c>
+      <c r="D163" t="s">
+        <v>367</v>
+      </c>
+      <c r="E163" t="s">
+        <v>603</v>
+      </c>
+      <c r="F163" t="s">
+        <v>604</v>
+      </c>
+      <c r="G163">
+        <v>396.24</v>
+      </c>
+      <c r="H163" t="s">
+        <v>29</v>
+      </c>
+      <c r="I163">
+        <v>63.4</v>
+      </c>
+      <c r="L163">
+        <v>459.64</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" t="s">
+        <v>605</v>
+      </c>
+      <c r="B164" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" t="s">
+        <v>106</v>
+      </c>
+      <c r="D164" t="s">
+        <v>107</v>
+      </c>
+      <c r="E164" t="s">
+        <v>606</v>
+      </c>
+      <c r="F164" t="s">
+        <v>607</v>
+      </c>
+      <c r="G164">
+        <v>630.61</v>
+      </c>
+      <c r="I164">
+        <v>100.8976</v>
+      </c>
+      <c r="L164">
+        <v>731.5076</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" t="s">
+        <v>608</v>
+      </c>
+      <c r="B165" t="s">
+        <v>13</v>
+      </c>
+      <c r="C165" t="s">
+        <v>609</v>
+      </c>
+      <c r="D165" t="s">
+        <v>610</v>
+      </c>
+      <c r="E165" t="s">
+        <v>611</v>
+      </c>
+      <c r="F165" t="s">
+        <v>612</v>
+      </c>
+      <c r="G165">
+        <v>3146.85</v>
+      </c>
+      <c r="I165">
+        <v>503.5</v>
+      </c>
+      <c r="J165" t="s">
+        <v>613</v>
+      </c>
+      <c r="K165" t="s">
+        <v>614</v>
+      </c>
+      <c r="L165">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" t="s">
+        <v>615</v>
+      </c>
+      <c r="B166" t="s">
+        <v>24</v>
+      </c>
+      <c r="C166" t="s">
+        <v>37</v>
+      </c>
+      <c r="D166" t="s">
+        <v>38</v>
+      </c>
+      <c r="E166" t="s">
+        <v>616</v>
+      </c>
+      <c r="F166" t="s">
+        <v>617</v>
+      </c>
+      <c r="G166">
+        <v>1174.55</v>
+      </c>
+      <c r="H166" t="s">
+        <v>29</v>
+      </c>
+      <c r="I166">
+        <v>187.93</v>
+      </c>
+      <c r="L166">
+        <v>1362.48</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" t="s">
+        <v>618</v>
+      </c>
+      <c r="B167" t="s">
+        <v>13</v>
+      </c>
+      <c r="C167" t="s">
+        <v>619</v>
+      </c>
+      <c r="D167" t="s">
+        <v>620</v>
+      </c>
+      <c r="E167" t="s">
+        <v>621</v>
+      </c>
+      <c r="F167" t="s">
+        <v>622</v>
+      </c>
+      <c r="G167">
+        <v>17500</v>
+      </c>
+      <c r="I167">
+        <v>2800</v>
+      </c>
+      <c r="L167">
+        <v>20300</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" t="s">
+        <v>623</v>
+      </c>
+      <c r="B168" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168" t="s">
+        <v>19</v>
+      </c>
+      <c r="D168" t="s">
+        <v>20</v>
+      </c>
+      <c r="E168" t="s">
+        <v>624</v>
+      </c>
+      <c r="F168" t="s">
+        <v>625</v>
+      </c>
+      <c r="G168">
+        <v>3098</v>
+      </c>
+      <c r="I168">
+        <v>495.68</v>
+      </c>
+      <c r="L168">
+        <v>3593.68</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" t="s">
+        <v>626</v>
+      </c>
+      <c r="B169" t="s">
+        <v>13</v>
+      </c>
+      <c r="C169" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" t="s">
+        <v>74</v>
+      </c>
+      <c r="E169" t="s">
+        <v>627</v>
+      </c>
+      <c r="F169" t="s">
+        <v>628</v>
+      </c>
+      <c r="G169">
+        <v>1199.7</v>
+      </c>
+      <c r="I169">
+        <v>191.95</v>
+      </c>
+      <c r="L169">
+        <v>1391.65</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" t="s">
+        <v>629</v>
+      </c>
+      <c r="B170" t="s">
+        <v>13</v>
+      </c>
+      <c r="C170" t="s">
+        <v>42</v>
+      </c>
+      <c r="D170" t="s">
+        <v>43</v>
+      </c>
+      <c r="E170" t="s">
+        <v>630</v>
+      </c>
+      <c r="F170" t="s">
+        <v>631</v>
+      </c>
+      <c r="G170">
+        <v>493.52</v>
+      </c>
+      <c r="H170" t="s">
+        <v>632</v>
+      </c>
+      <c r="I170">
+        <v>71.06</v>
+      </c>
+      <c r="L170">
+        <v>515.23</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" t="s">
+        <v>633</v>
+      </c>
+      <c r="B171" t="s">
+        <v>13</v>
+      </c>
+      <c r="C171" t="s">
+        <v>14</v>
+      </c>
+      <c r="D171" t="s">
+        <v>15</v>
+      </c>
+      <c r="E171" t="s">
+        <v>634</v>
+      </c>
+      <c r="F171" t="s">
+        <v>635</v>
+      </c>
+      <c r="G171">
+        <v>291.77</v>
+      </c>
+      <c r="I171">
+        <v>46.68</v>
+      </c>
+      <c r="L171">
+        <v>338.45</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" t="s">
+        <v>636</v>
+      </c>
+      <c r="B172" t="s">
+        <v>13</v>
+      </c>
+      <c r="C172" t="s">
+        <v>147</v>
+      </c>
+      <c r="D172" t="s">
+        <v>148</v>
+      </c>
+      <c r="E172" t="s">
+        <v>637</v>
+      </c>
+      <c r="F172" t="s">
+        <v>638</v>
+      </c>
+      <c r="G172">
+        <v>1878.39</v>
+      </c>
+      <c r="K172" t="s">
+        <v>29</v>
+      </c>
+      <c r="L172">
+        <v>1878.39</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" t="s">
+        <v>639</v>
+      </c>
+      <c r="B173" t="s">
+        <v>13</v>
+      </c>
+      <c r="C173" t="s">
+        <v>203</v>
+      </c>
+      <c r="D173" t="s">
+        <v>204</v>
+      </c>
+      <c r="E173" t="s">
+        <v>640</v>
+      </c>
+      <c r="F173" t="s">
+        <v>641</v>
+      </c>
+      <c r="G173">
+        <v>120.69</v>
+      </c>
+      <c r="H173" t="s">
+        <v>29</v>
+      </c>
+      <c r="I173">
+        <v>19.31</v>
+      </c>
+      <c r="L173">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" t="s">
+        <v>642</v>
+      </c>
+      <c r="B174" t="s">
+        <v>13</v>
+      </c>
+      <c r="C174" t="s">
+        <v>366</v>
+      </c>
+      <c r="D174" t="s">
+        <v>367</v>
+      </c>
+      <c r="E174" t="s">
+        <v>643</v>
+      </c>
+      <c r="F174" t="s">
+        <v>644</v>
+      </c>
+      <c r="G174">
+        <v>4736</v>
+      </c>
+      <c r="H174" t="s">
+        <v>645</v>
+      </c>
+      <c r="I174">
+        <v>568.3200000000001</v>
+      </c>
+      <c r="L174">
+        <v>4120.32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" t="s">
+        <v>646</v>
+      </c>
+      <c r="B175" t="s">
+        <v>24</v>
+      </c>
+      <c r="C175" t="s">
+        <v>25</v>
+      </c>
+      <c r="D175" t="s">
+        <v>26</v>
+      </c>
+      <c r="E175" t="s">
+        <v>647</v>
+      </c>
+      <c r="F175" t="s">
+        <v>648</v>
+      </c>
+      <c r="G175">
+        <v>2150.6</v>
+      </c>
+      <c r="H175" t="s">
+        <v>29</v>
+      </c>
+      <c r="I175">
+        <v>344.09</v>
+      </c>
+      <c r="K175" t="s">
+        <v>30</v>
+      </c>
+      <c r="L175">
+        <v>2494.69</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" t="s">
+        <v>649</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>181</v>
+      </c>
+      <c r="D176" t="s">
+        <v>182</v>
+      </c>
+      <c r="E176" t="s">
+        <v>650</v>
+      </c>
+      <c r="F176" t="s">
+        <v>651</v>
+      </c>
+      <c r="G176">
+        <v>126.72</v>
+      </c>
+      <c r="I176">
+        <v>20.28</v>
+      </c>
+      <c r="L176">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" t="s">
+        <v>652</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>219</v>
+      </c>
+      <c r="D177" t="s">
+        <v>220</v>
+      </c>
+      <c r="E177" t="s">
+        <v>653</v>
+      </c>
+      <c r="F177" t="s">
+        <v>654</v>
+      </c>
+      <c r="G177">
+        <v>287.76</v>
+      </c>
+      <c r="H177" t="s">
+        <v>655</v>
+      </c>
+      <c r="I177">
+        <v>43.21</v>
+      </c>
+      <c r="L177">
+        <v>313.3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" t="s">
+        <v>656</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" t="s">
+        <v>598</v>
+      </c>
+      <c r="D178" t="s">
+        <v>599</v>
+      </c>
+      <c r="E178" t="s">
+        <v>657</v>
+      </c>
+      <c r="F178" t="s">
+        <v>658</v>
+      </c>
+      <c r="G178">
+        <v>309.48</v>
+      </c>
+      <c r="H178" t="s">
+        <v>30</v>
+      </c>
+      <c r="I178">
+        <v>49.52</v>
+      </c>
+      <c r="L178">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" t="s">
+        <v>659</v>
+      </c>
+      <c r="B179" t="s">
+        <v>13</v>
+      </c>
+      <c r="C179" t="s">
+        <v>341</v>
+      </c>
+      <c r="D179" t="s">
+        <v>342</v>
+      </c>
+      <c r="E179" t="s">
+        <v>660</v>
+      </c>
+      <c r="F179" t="s">
+        <v>661</v>
+      </c>
+      <c r="G179">
+        <v>1800</v>
+      </c>
+      <c r="I179">
+        <v>288</v>
+      </c>
+      <c r="L179">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" t="s">
+        <v>662</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>663</v>
+      </c>
+      <c r="D180" t="s">
+        <v>664</v>
+      </c>
+      <c r="E180" t="s">
+        <v>665</v>
+      </c>
+      <c r="F180" t="s">
+        <v>666</v>
+      </c>
+      <c r="G180">
+        <v>69.36</v>
+      </c>
+      <c r="I180">
+        <v>11.1</v>
+      </c>
+      <c r="L180">
+        <v>80.45999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" t="s">
+        <v>667</v>
+      </c>
+      <c r="B181" t="s">
+        <v>13</v>
+      </c>
+      <c r="C181" t="s">
+        <v>203</v>
+      </c>
+      <c r="D181" t="s">
+        <v>204</v>
+      </c>
+      <c r="E181" t="s">
+        <v>668</v>
+      </c>
+      <c r="F181" t="s">
+        <v>669</v>
+      </c>
+      <c r="G181">
+        <v>262.93</v>
+      </c>
+      <c r="H181" t="s">
+        <v>29</v>
+      </c>
+      <c r="I181">
+        <v>42.07</v>
+      </c>
+      <c r="L181">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" t="s">
+        <v>670</v>
+      </c>
+      <c r="B182" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182" t="s">
+        <v>25</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" t="s">
+        <v>671</v>
+      </c>
+      <c r="F182" t="s">
+        <v>672</v>
+      </c>
+      <c r="G182">
+        <v>1518.4</v>
+      </c>
+      <c r="H182" t="s">
+        <v>29</v>
+      </c>
+      <c r="I182">
+        <v>242.94</v>
+      </c>
+      <c r="K182" t="s">
+        <v>30</v>
+      </c>
+      <c r="L182">
+        <v>1761.34</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" t="s">
+        <v>673</v>
+      </c>
+      <c r="B183" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" t="s">
+        <v>481</v>
+      </c>
+      <c r="D183" t="s">
+        <v>482</v>
+      </c>
+      <c r="E183" t="s">
+        <v>674</v>
+      </c>
+      <c r="F183" t="s">
+        <v>675</v>
+      </c>
+      <c r="G183">
+        <v>201.68</v>
+      </c>
+      <c r="I183">
+        <v>32.27</v>
+      </c>
+      <c r="L183">
+        <v>233.95</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" t="s">
+        <v>676</v>
+      </c>
+      <c r="B184" t="s">
+        <v>13</v>
+      </c>
+      <c r="C184" t="s">
+        <v>147</v>
+      </c>
+      <c r="D184" t="s">
+        <v>148</v>
+      </c>
+      <c r="E184" t="s">
+        <v>677</v>
+      </c>
+      <c r="F184" t="s">
+        <v>678</v>
+      </c>
+      <c r="G184">
+        <v>495</v>
+      </c>
+      <c r="I184">
+        <v>79.2</v>
+      </c>
+      <c r="K184" t="s">
+        <v>29</v>
+      </c>
+      <c r="L184">
+        <v>574.2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" t="s">
+        <v>679</v>
+      </c>
+      <c r="B185" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" t="s">
+        <v>25</v>
+      </c>
+      <c r="D185" t="s">
+        <v>26</v>
+      </c>
+      <c r="E185" t="s">
+        <v>680</v>
+      </c>
+      <c r="F185" t="s">
+        <v>681</v>
+      </c>
+      <c r="G185">
+        <v>48.6</v>
+      </c>
+      <c r="H185" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185">
+        <v>7.78</v>
+      </c>
+      <c r="K185" t="s">
+        <v>30</v>
+      </c>
+      <c r="L185">
+        <v>56.38</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" t="s">
+        <v>682</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186" t="s">
+        <v>683</v>
+      </c>
+      <c r="D186" t="s">
+        <v>684</v>
+      </c>
+      <c r="E186" t="s">
+        <v>685</v>
+      </c>
+      <c r="F186" t="s">
+        <v>686</v>
+      </c>
+      <c r="G186">
+        <v>3600</v>
+      </c>
+      <c r="I186">
+        <v>576</v>
+      </c>
+      <c r="L186">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" t="s">
+        <v>687</v>
+      </c>
+      <c r="B187" t="s">
+        <v>13</v>
+      </c>
+      <c r="C187" t="s">
+        <v>688</v>
+      </c>
+      <c r="D187" t="s">
+        <v>689</v>
+      </c>
+      <c r="E187" t="s">
+        <v>690</v>
+      </c>
+      <c r="F187" t="s">
+        <v>691</v>
+      </c>
+      <c r="G187">
+        <v>1374.89</v>
+      </c>
+      <c r="H187" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187">
+        <v>219.98</v>
+      </c>
+      <c r="L187">
+        <v>1594.87</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" t="s">
+        <v>692</v>
+      </c>
+      <c r="B188" t="s">
+        <v>13</v>
+      </c>
+      <c r="C188" t="s">
+        <v>693</v>
+      </c>
+      <c r="D188" t="s">
+        <v>694</v>
+      </c>
+      <c r="E188" t="s">
+        <v>695</v>
+      </c>
+      <c r="F188" t="s">
+        <v>696</v>
+      </c>
+      <c r="G188">
+        <v>129.3</v>
+      </c>
+      <c r="I188">
+        <v>20.69</v>
+      </c>
+      <c r="L188">
+        <v>149.99</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" t="s">
+        <v>697</v>
+      </c>
+      <c r="B189" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189" t="s">
+        <v>698</v>
+      </c>
+      <c r="D189" t="s">
+        <v>699</v>
+      </c>
+      <c r="E189" t="s">
+        <v>700</v>
+      </c>
+      <c r="F189" t="s">
+        <v>701</v>
+      </c>
+      <c r="G189">
+        <v>594.83</v>
+      </c>
+      <c r="I189">
+        <v>95.17</v>
+      </c>
+      <c r="L189">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" t="s">
+        <v>702</v>
+      </c>
+      <c r="B190" t="s">
+        <v>13</v>
+      </c>
+      <c r="C190" t="s">
+        <v>37</v>
+      </c>
+      <c r="D190" t="s">
+        <v>38</v>
+      </c>
+      <c r="E190" t="s">
+        <v>703</v>
+      </c>
+      <c r="F190" t="s">
+        <v>704</v>
+      </c>
+      <c r="G190">
+        <v>3899.28</v>
+      </c>
+      <c r="H190" t="s">
+        <v>29</v>
+      </c>
+      <c r="I190">
+        <v>623.8848</v>
+      </c>
+      <c r="L190">
+        <v>4523.16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" t="s">
+        <v>705</v>
+      </c>
+      <c r="B191" t="s">
+        <v>13</v>
+      </c>
+      <c r="C191" t="s">
+        <v>37</v>
+      </c>
+      <c r="D191" t="s">
+        <v>38</v>
+      </c>
+      <c r="E191" t="s">
+        <v>706</v>
+      </c>
+      <c r="F191" t="s">
+        <v>707</v>
+      </c>
+      <c r="G191">
+        <v>8822.41</v>
+      </c>
+      <c r="H191" t="s">
+        <v>29</v>
+      </c>
+      <c r="I191">
+        <v>1411.5856</v>
+      </c>
+      <c r="L191">
+        <v>10234</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" t="s">
+        <v>708</v>
+      </c>
+      <c r="B192" t="s">
+        <v>13</v>
+      </c>
+      <c r="C192" t="s">
+        <v>114</v>
+      </c>
+      <c r="D192" t="s">
+        <v>115</v>
+      </c>
+      <c r="E192" t="s">
+        <v>709</v>
+      </c>
+      <c r="F192" t="s">
+        <v>117</v>
+      </c>
+      <c r="G192">
+        <v>888.96</v>
+      </c>
+      <c r="I192">
+        <v>142.23</v>
+      </c>
+      <c r="L192">
+        <v>1031.19</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" t="s">
+        <v>710</v>
+      </c>
+      <c r="B193" t="s">
+        <v>13</v>
+      </c>
+      <c r="C193" t="s">
+        <v>619</v>
+      </c>
+      <c r="D193" t="s">
+        <v>620</v>
+      </c>
+      <c r="E193" t="s">
+        <v>711</v>
+      </c>
+      <c r="F193" t="s">
+        <v>712</v>
+      </c>
+      <c r="G193">
+        <v>3886.57</v>
+      </c>
+      <c r="I193">
+        <v>621.85</v>
+      </c>
+      <c r="L193">
+        <v>4508.42</v>
       </c>
     </row>
   </sheetData>
